--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_PRIVCON_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_PRIVCON_AR2_50_9.xlsx
@@ -369,171 +369,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA92"/>
+  <dimension ref="A1:AZ83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -690,11 +687,8 @@
       <c r="AZ2">
         <v>0.25</v>
       </c>
-      <c r="BA2">
-        <v>0.25</v>
-      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -851,17 +845,11 @@
       <c r="AZ3">
         <v>0.25</v>
       </c>
-      <c r="BA3">
-        <v>0.25</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
-      <c r="B4">
-        <v>0.2750000000000057</v>
-      </c>
       <c r="C4">
         <v>0.1500000000000057</v>
       </c>
@@ -1012,17 +1000,11 @@
       <c r="AZ4">
         <v>0.1500000000000057</v>
       </c>
-      <c r="BA4">
-        <v>0.1500000000000057</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
-      <c r="B5">
-        <v>0.3149999999999977</v>
-      </c>
       <c r="C5">
         <v>0.2000000000000028</v>
       </c>
@@ -1173,20 +1155,11 @@
       <c r="AZ5">
         <v>0.2000000000000028</v>
       </c>
-      <c r="BA5">
-        <v>0.2000000000000028</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
-      <c r="B6">
-        <v>0.3500000000000085</v>
-      </c>
-      <c r="C6">
-        <v>0.25</v>
-      </c>
       <c r="D6">
         <v>0.4000000000000057</v>
       </c>
@@ -1334,17 +1307,11 @@
       <c r="AZ6">
         <v>0.4000000000000057</v>
       </c>
-      <c r="BA6">
-        <v>0.4000000000000057</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
-      <c r="C7">
-        <v>0.25</v>
-      </c>
       <c r="D7">
         <v>0.4999999999999858</v>
       </c>
@@ -1492,20 +1459,11 @@
       <c r="AZ7">
         <v>0.4999999999999858</v>
       </c>
-      <c r="BA7">
-        <v>0.4999999999999858</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
-      <c r="C8">
-        <v>0.2250000000000085</v>
-      </c>
-      <c r="D8">
-        <v>0.25</v>
-      </c>
       <c r="E8">
         <v>0.09999999999999432</v>
       </c>
@@ -1650,20 +1608,11 @@
       <c r="AZ8">
         <v>0.09999999999999432</v>
       </c>
-      <c r="BA8">
-        <v>0.09999999999999432</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
-      <c r="C9">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="D9">
-        <v>-0.2000000000000171</v>
-      </c>
       <c r="E9">
         <v>0.4000000000000057</v>
       </c>
@@ -1808,23 +1757,11 @@
       <c r="AZ9">
         <v>0.4000000000000057</v>
       </c>
-      <c r="BA9">
-        <v>0.4000000000000057</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
-      <c r="C10">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="D10">
-        <v>-0.3499999999999943</v>
-      </c>
-      <c r="E10">
-        <v>-0.3499999999999943</v>
-      </c>
       <c r="F10">
         <v>-0.5</v>
       </c>
@@ -1966,23 +1903,11 @@
       <c r="AZ10">
         <v>-0.5</v>
       </c>
-      <c r="BA10">
-        <v>-0.5</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
-      <c r="C11">
-        <v>0.2261841100076418</v>
-      </c>
-      <c r="D11">
-        <v>0.3308410527864402</v>
-      </c>
-      <c r="E11">
-        <v>-0.5</v>
-      </c>
       <c r="F11">
         <v>0.4999999999999858</v>
       </c>
@@ -2124,26 +2049,11 @@
       <c r="AZ11">
         <v>0.4999999999999858</v>
       </c>
-      <c r="BA11">
-        <v>0.4999999999999858</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
-      <c r="C12">
-        <v>0.2271642638581957</v>
-      </c>
-      <c r="D12">
-        <v>1.438884109801674</v>
-      </c>
-      <c r="E12">
-        <v>-0.3500000000000085</v>
-      </c>
-      <c r="F12">
-        <v>0.1500000000000057</v>
-      </c>
       <c r="G12">
         <v>0.2999999999999829</v>
       </c>
@@ -2282,26 +2192,11 @@
       <c r="AZ12">
         <v>0.2999999999999829</v>
       </c>
-      <c r="BA12">
-        <v>0.2999999999999829</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
-      <c r="C13">
-        <v>0.210298300972193</v>
-      </c>
-      <c r="D13">
-        <v>1.540641421740961</v>
-      </c>
-      <c r="E13">
-        <v>-0.1499999999999915</v>
-      </c>
-      <c r="F13">
-        <v>0.2000000000000028</v>
-      </c>
       <c r="G13">
         <v>0.2250000000000085</v>
       </c>
@@ -2440,29 +2335,11 @@
       <c r="AZ13">
         <v>0.2250000000000085</v>
       </c>
-      <c r="BA13">
-        <v>0.2250000000000085</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
-      <c r="C14">
-        <v>0.2090342351317556</v>
-      </c>
-      <c r="D14">
-        <v>-0.3733300397321857</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="G14">
-        <v>0.1500000000000057</v>
-      </c>
       <c r="H14">
         <v>0.4</v>
       </c>
@@ -2598,29 +2475,11 @@
       <c r="AZ14">
         <v>0.4</v>
       </c>
-      <c r="BA14">
-        <v>0.4</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
-      <c r="C15">
-        <v>0.2198744180289982</v>
-      </c>
-      <c r="D15">
-        <v>-2.899725645883807</v>
-      </c>
-      <c r="E15">
-        <v>-0.0006859756097551727</v>
-      </c>
-      <c r="F15">
-        <v>0.2145426277842452</v>
-      </c>
-      <c r="G15">
-        <v>0.09999999999999432</v>
-      </c>
       <c r="H15">
         <v>0.2</v>
       </c>
@@ -2756,32 +2615,11 @@
       <c r="AZ15">
         <v>0.2</v>
       </c>
-      <c r="BA15">
-        <v>0.2</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
-      <c r="C16">
-        <v>0.221096193886244</v>
-      </c>
-      <c r="D16">
-        <v>-2.466510431039004</v>
-      </c>
-      <c r="E16">
-        <v>0.001277490147234767</v>
-      </c>
-      <c r="F16">
-        <v>0.2079852397782938</v>
-      </c>
-      <c r="G16">
-        <v>0.1500000000000057</v>
-      </c>
-      <c r="H16">
-        <v>0.3</v>
-      </c>
       <c r="I16">
         <v>0.2</v>
       </c>
@@ -2914,32 +2752,11 @@
       <c r="AZ16">
         <v>0.2</v>
       </c>
-      <c r="BA16">
-        <v>0.2</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
-      <c r="C17">
-        <v>0.2141442553597622</v>
-      </c>
-      <c r="D17">
-        <v>2.71046652740157</v>
-      </c>
-      <c r="E17">
-        <v>0.002370109105202046</v>
-      </c>
-      <c r="F17">
-        <v>0.2114995324873365</v>
-      </c>
-      <c r="G17">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="H17">
-        <v>0.4</v>
-      </c>
       <c r="I17">
         <v>0.3</v>
       </c>
@@ -3072,35 +2889,11 @@
       <c r="AZ17">
         <v>0.3</v>
       </c>
-      <c r="BA17">
-        <v>0.3</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
-      <c r="C18">
-        <v>0.2130953282496242</v>
-      </c>
-      <c r="D18">
-        <v>8.240693983016065</v>
-      </c>
-      <c r="E18">
-        <v>0.003014848781629035</v>
-      </c>
-      <c r="F18">
-        <v>0.2096635222075429</v>
-      </c>
-      <c r="G18">
-        <v>0.25</v>
-      </c>
-      <c r="H18">
-        <v>0.4</v>
-      </c>
-      <c r="I18">
-        <v>0.3</v>
-      </c>
       <c r="J18">
         <v>0.3</v>
       </c>
@@ -3230,35 +3023,11 @@
       <c r="AZ18">
         <v>0.3</v>
       </c>
-      <c r="BA18">
-        <v>0.3</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
-      <c r="C19">
-        <v>0.2175437550078216</v>
-      </c>
-      <c r="D19">
-        <v>5.476114051243447</v>
-      </c>
-      <c r="E19">
-        <v>0.003394267480376502</v>
-      </c>
-      <c r="F19">
-        <v>0.2106261197594295</v>
-      </c>
-      <c r="G19">
-        <v>0.1922030507416723</v>
-      </c>
-      <c r="H19">
-        <v>0.2105643330366499</v>
-      </c>
-      <c r="I19">
-        <v>0.3</v>
-      </c>
       <c r="J19">
         <v>0.3</v>
       </c>
@@ -3388,38 +3157,11 @@
       <c r="AZ19">
         <v>0.3</v>
       </c>
-      <c r="BA19">
-        <v>0.3</v>
-      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
-      <c r="C20">
-        <v>0.2183873885595544</v>
-      </c>
-      <c r="D20">
-        <v>-8.075990652489821</v>
-      </c>
-      <c r="E20">
-        <v>0.003617576572235872</v>
-      </c>
-      <c r="F20">
-        <v>0.2101216905378427</v>
-      </c>
-      <c r="G20">
-        <v>0.213134437358898</v>
-      </c>
-      <c r="H20">
-        <v>0.2801059053934691</v>
-      </c>
-      <c r="I20">
-        <v>0.4</v>
-      </c>
-      <c r="J20">
-        <v>0.3</v>
-      </c>
       <c r="K20">
         <v>0.4</v>
       </c>
@@ -3546,32 +3288,11 @@
       <c r="AZ20">
         <v>0.4</v>
       </c>
-      <c r="BA20">
-        <v>0.4</v>
-      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
-      <c r="E21">
-        <v>0.003749005713096212</v>
-      </c>
-      <c r="F21">
-        <v>0.2103860443704686</v>
-      </c>
-      <c r="G21">
-        <v>0.2072480599534704</v>
-      </c>
-      <c r="H21">
-        <v>0.2560516698987222</v>
-      </c>
-      <c r="I21">
-        <v>0.4</v>
-      </c>
-      <c r="J21">
-        <v>0.3</v>
-      </c>
       <c r="K21">
         <v>0.3</v>
       </c>
@@ -3698,34 +3419,13 @@
       <c r="AZ21">
         <v>0.3</v>
       </c>
-      <c r="BA21">
-        <v>0.3</v>
-      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
-      <c r="E22">
-        <v>0.003826358691694989</v>
-      </c>
-      <c r="F22">
-        <v>0.2102475070406229</v>
-      </c>
-      <c r="G22">
-        <v>0.208703794759618</v>
-      </c>
-      <c r="H22">
-        <v>0.264340703775608</v>
-      </c>
-      <c r="I22">
-        <v>0.5</v>
-      </c>
-      <c r="J22">
-        <v>0.3</v>
-      </c>
       <c r="K22">
-        <v>0.4</v>
+        <v>0.2406481426026468</v>
       </c>
       <c r="L22">
         <v>0.1</v>
@@ -3850,34 +3550,13 @@
       <c r="AZ22">
         <v>0.1</v>
       </c>
-      <c r="BA22">
-        <v>0.1</v>
-      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:52">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
-      <c r="E23">
-        <v>0.003871884997284687</v>
-      </c>
-      <c r="F23">
-        <v>0.2103201090426748</v>
-      </c>
-      <c r="G23">
-        <v>0.2083740840428288</v>
-      </c>
-      <c r="H23">
-        <v>0.2614850252424987</v>
-      </c>
-      <c r="I23">
-        <v>0.2213149611819212</v>
-      </c>
-      <c r="J23">
-        <v>0.2366662947972912</v>
-      </c>
       <c r="K23">
-        <v>0.4</v>
+        <v>0.2649080144642169</v>
       </c>
       <c r="L23">
         <v>0.2</v>
@@ -4002,37 +3681,16 @@
       <c r="AZ23">
         <v>0.2</v>
       </c>
-      <c r="BA23">
-        <v>0.2</v>
-      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:52">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
-      <c r="E24">
-        <v>0.003898679628070148</v>
-      </c>
-      <c r="F24">
-        <v>0.2102820611770121</v>
-      </c>
-      <c r="G24">
-        <v>0.2084435310056825</v>
-      </c>
-      <c r="H24">
-        <v>0.2624688272545679</v>
-      </c>
-      <c r="I24">
-        <v>0.3072119725473509</v>
-      </c>
-      <c r="J24">
-        <v>0.2619149765686209</v>
-      </c>
       <c r="K24">
-        <v>0.4</v>
+        <v>0.2568671850973999</v>
       </c>
       <c r="L24">
-        <v>0.2</v>
+        <v>0.2755381357260102</v>
       </c>
       <c r="M24">
         <v>0.2</v>
@@ -4154,31 +3812,16 @@
       <c r="AZ24">
         <v>0.2</v>
       </c>
-      <c r="BA24">
-        <v>0.2</v>
-      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:52">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
-      <c r="G25">
-        <v>0.2084298888840937</v>
-      </c>
-      <c r="H25">
-        <v>0.262129900669213</v>
-      </c>
-      <c r="I25">
-        <v>0.2630354996012217</v>
-      </c>
-      <c r="J25">
-        <v>0.253869962048895</v>
-      </c>
       <c r="K25">
-        <v>0.4</v>
+        <v>0.2594464391203431</v>
       </c>
       <c r="L25">
-        <v>0.3</v>
+        <v>0.2424446056481132</v>
       </c>
       <c r="M25">
         <v>0.3</v>
@@ -4300,34 +3943,19 @@
       <c r="AZ25">
         <v>0.3</v>
       </c>
-      <c r="BA25">
-        <v>0.3</v>
-      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:52">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
-      <c r="G26">
-        <v>0.208432369036481</v>
-      </c>
-      <c r="H26">
-        <v>0.2622466632097187</v>
-      </c>
-      <c r="I26">
-        <v>0.2816539541538574</v>
-      </c>
-      <c r="J26">
-        <v>0.2562716409266943</v>
-      </c>
       <c r="K26">
-        <v>0.4</v>
+        <v>0.2586239387660781</v>
       </c>
       <c r="L26">
-        <v>0.3</v>
+        <v>0.2512510885191418</v>
       </c>
       <c r="M26">
-        <v>0.3</v>
+        <v>0.2308775453139601</v>
       </c>
       <c r="N26">
         <v>0.3</v>
@@ -4446,34 +4074,19 @@
       <c r="AZ26">
         <v>0.3</v>
       </c>
-      <c r="BA26">
-        <v>0.3</v>
-      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:52">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
-      <c r="G27">
-        <v>0.2084319615318407</v>
-      </c>
-      <c r="H27">
-        <v>0.262206437711359</v>
-      </c>
-      <c r="I27">
-        <v>0.2732375814320582</v>
-      </c>
-      <c r="J27">
-        <v>0.2555708599754404</v>
-      </c>
       <c r="K27">
-        <v>0.2798741294227644</v>
+        <v>0.2588859438801661</v>
       </c>
       <c r="L27">
-        <v>0.2305474233578236</v>
+        <v>0.249527221011084</v>
       </c>
       <c r="M27">
-        <v>0.3</v>
+        <v>0.2529213539471731</v>
       </c>
       <c r="N27">
         <v>0.4</v>
@@ -4592,37 +4205,22 @@
       <c r="AZ27">
         <v>0.4</v>
       </c>
-      <c r="BA27">
-        <v>0.4</v>
-      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:52">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
-      <c r="G28">
-        <v>0.20843201830075</v>
-      </c>
-      <c r="H28">
-        <v>0.2622202956722324</v>
-      </c>
-      <c r="I28">
-        <v>0.2769456559888161</v>
-      </c>
-      <c r="J28">
-        <v>0.2557736088735613</v>
-      </c>
       <c r="K28">
-        <v>0.3074389097524153</v>
+        <v>0.2588024994929655</v>
       </c>
       <c r="L28">
-        <v>0.2558492330246554</v>
+        <v>0.2497536213926899</v>
       </c>
       <c r="M28">
-        <v>0.3</v>
+        <v>0.2471411183585731</v>
       </c>
       <c r="N28">
-        <v>0.4</v>
+        <v>0.2041905658263077</v>
       </c>
       <c r="O28">
         <v>0.3490000000000038</v>
@@ -4738,31 +4336,22 @@
       <c r="AZ28">
         <v>0.3490000000000038</v>
       </c>
-      <c r="BA28">
-        <v>0.3490000000000038</v>
-      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:52">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
-      <c r="I29">
-        <v>0.2752967118099932</v>
-      </c>
-      <c r="J29">
-        <v>0.2557151390865748</v>
-      </c>
       <c r="K29">
-        <v>0.2851284463658186</v>
+        <v>0.258829074205188</v>
       </c>
       <c r="L29">
-        <v>0.2491463216014904</v>
+        <v>0.2497509423890524</v>
       </c>
       <c r="M29">
-        <v>0.3</v>
+        <v>0.2485252455826206</v>
       </c>
       <c r="N29">
-        <v>0.5</v>
+        <v>0.2705024062023885</v>
       </c>
       <c r="O29">
         <v>0.4399999999999977</v>
@@ -4878,34 +4467,25 @@
       <c r="AZ29">
         <v>0.4399999999999977</v>
       </c>
-      <c r="BA29">
-        <v>0.4399999999999977</v>
-      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:52">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
-      <c r="I30">
-        <v>0.2760275098271919</v>
-      </c>
-      <c r="J30">
-        <v>0.2557319800428157</v>
-      </c>
       <c r="K30">
-        <v>0.2939160121833996</v>
+        <v>0.2588206109570591</v>
       </c>
       <c r="L30">
-        <v>0.2506721290095794</v>
+        <v>0.2497411495493291</v>
       </c>
       <c r="M30">
-        <v>0.3</v>
+        <v>0.2482106433972973</v>
       </c>
       <c r="N30">
-        <v>0.5</v>
+        <v>0.2514288237806619</v>
       </c>
       <c r="O30">
-        <v>0.4399999999999977</v>
+        <v>0.220630034955395</v>
       </c>
       <c r="P30">
         <v>0.4399999999999977</v>
@@ -5018,34 +4598,25 @@
       <c r="AZ30">
         <v>0.4399999999999977</v>
       </c>
-      <c r="BA30">
-        <v>0.4399999999999977</v>
-      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:52">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
-      <c r="I31">
-        <v>0.2757032295092964</v>
-      </c>
-      <c r="J31">
-        <v>0.2557271316785081</v>
-      </c>
       <c r="K31">
-        <v>0.2889306870656961</v>
+        <v>0.2588233062441777</v>
       </c>
       <c r="L31">
-        <v>0.2503589600963355</v>
+        <v>0.2497449493158022</v>
       </c>
       <c r="M31">
-        <v>0.2427535444603275</v>
+        <v>0.2482797897558012</v>
       </c>
       <c r="N31">
-        <v>0.2745087824751216</v>
+        <v>0.2567063351607092</v>
       </c>
       <c r="O31">
-        <v>0.4399999999999977</v>
+        <v>0.2869839727705435</v>
       </c>
       <c r="P31">
         <v>0.3500000000000085</v>
@@ -5158,37 +4729,25 @@
       <c r="AZ31">
         <v>0.3500000000000085</v>
       </c>
-      <c r="BA31">
-        <v>0.3500000000000085</v>
-      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:52">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
-      <c r="I32">
-        <v>0.2758470599360334</v>
-      </c>
-      <c r="J32">
-        <v>0.2557285272245594</v>
-      </c>
-      <c r="K32">
-        <v>0.291244020297373</v>
-      </c>
       <c r="L32">
-        <v>0.2504178046891811</v>
+        <v>0.2497439915607786</v>
       </c>
       <c r="M32">
-        <v>0.2623880904732802</v>
+        <v>0.2482649406854426</v>
       </c>
       <c r="N32">
-        <v>0.3116618804266451</v>
+        <v>0.2552612481191168</v>
       </c>
       <c r="O32">
-        <v>0.4399999999999977</v>
+        <v>0.2587818407937448</v>
       </c>
       <c r="P32">
-        <v>0.3500000000000085</v>
+        <v>0.2790999077432207</v>
       </c>
       <c r="Q32">
         <v>0.4499999999999886</v>
@@ -5298,31 +4857,25 @@
       <c r="AZ32">
         <v>0.4499999999999886</v>
       </c>
-      <c r="BA32">
-        <v>0.4499999999999886</v>
-      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:52">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
-      <c r="K33">
-        <v>0.2900497864242778</v>
-      </c>
       <c r="L33">
-        <v>0.2504077061051488</v>
+        <v>0.2497441694715142</v>
       </c>
       <c r="M33">
-        <v>0.2564785769495311</v>
+        <v>0.2482680762612546</v>
       </c>
       <c r="N33">
-        <v>0.2755627509436002</v>
+        <v>0.2556557969598077</v>
       </c>
       <c r="O33">
-        <v>0.4399999999999977</v>
+        <v>0.2696289432809408</v>
       </c>
       <c r="P33">
-        <v>0.3500000000000085</v>
+        <v>0.2844800239687437</v>
       </c>
       <c r="Q33">
         <v>0.4000000000000057</v>
@@ -5432,34 +4985,25 @@
       <c r="AZ33">
         <v>0.4000000000000057</v>
       </c>
-      <c r="BA33">
-        <v>0.4000000000000057</v>
-      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:52">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
-      <c r="K34">
-        <v>0.2906316602007439</v>
-      </c>
-      <c r="L34">
-        <v>0.2504092545061135</v>
-      </c>
       <c r="M34">
-        <v>0.2582225470054887</v>
+        <v>0.2482674224649081</v>
       </c>
       <c r="N34">
-        <v>0.2864498931310943</v>
+        <v>0.2555481615117014</v>
       </c>
       <c r="O34">
-        <v>0.4399999999999977</v>
+        <v>0.2653432882055331</v>
       </c>
       <c r="P34">
-        <v>0.3500000000000085</v>
+        <v>0.2759176508109135</v>
       </c>
       <c r="Q34">
-        <v>0.4000000000000057</v>
+        <v>0.2952500504331024</v>
       </c>
       <c r="R34">
         <v>0.4202440737484352</v>
@@ -5566,34 +5110,25 @@
       <c r="AZ34">
         <v>0.4202440737484352</v>
       </c>
-      <c r="BA34">
-        <v>0.4202440737484352</v>
-      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:52">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
-      <c r="K35">
-        <v>0.2903392219781751</v>
-      </c>
-      <c r="L35">
-        <v>0.250409056051178</v>
-      </c>
       <c r="M35">
-        <v>0.2577095386082597</v>
+        <v>0.2482675574646361</v>
       </c>
       <c r="N35">
-        <v>0.2798569264865912</v>
+        <v>0.2555775184684614</v>
       </c>
       <c r="O35">
-        <v>0.3151709182488615</v>
+        <v>0.2670240126263722</v>
       </c>
       <c r="P35">
-        <v>0.2808237758762806</v>
+        <v>0.2782719818275904</v>
       </c>
       <c r="Q35">
-        <v>0.2999999999999829</v>
+        <v>0.3042169802208217</v>
       </c>
       <c r="R35">
         <v>0.4753723183093825</v>
@@ -5700,37 +5235,25 @@
       <c r="AZ35">
         <v>0.4753723183093825</v>
       </c>
-      <c r="BA35">
-        <v>0.4753723183093825</v>
-      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:52">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
-      <c r="K36">
-        <v>0.2904837571693963</v>
-      </c>
-      <c r="L36">
-        <v>0.250409072287049</v>
-      </c>
-      <c r="M36">
-        <v>0.2578603648202832</v>
-      </c>
       <c r="N36">
-        <v>0.2823905925892132</v>
+        <v>0.2555695120370644</v>
       </c>
       <c r="O36">
-        <v>0.3275535854284436</v>
+        <v>0.2663635318419224</v>
       </c>
       <c r="P36">
-        <v>0.2936979985380811</v>
+        <v>0.2768815923109175</v>
       </c>
       <c r="Q36">
-        <v>0.2999999999999829</v>
+        <v>0.2863572152721353</v>
       </c>
       <c r="R36">
-        <v>0.4499999999999886</v>
+        <v>0.3039451769698703</v>
       </c>
       <c r="S36">
         <v>0.2999999999999687</v>
@@ -5834,31 +5357,25 @@
       <c r="AZ36">
         <v>0.2999999999999687</v>
       </c>
-      <c r="BA36">
-        <v>0.2999999999999687</v>
-      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:52">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
-      <c r="M37">
-        <v>0.2578160253675388</v>
-      </c>
       <c r="N37">
-        <v>0.2810966405691779</v>
+        <v>0.2555716955669703</v>
       </c>
       <c r="O37">
-        <v>0.2988414884666695</v>
+        <v>0.2666229383135665</v>
       </c>
       <c r="P37">
-        <v>0.2820336251499731</v>
+        <v>0.2774192267477528</v>
       </c>
       <c r="Q37">
-        <v>0.2999999999999829</v>
+        <v>0.2906281928630214</v>
       </c>
       <c r="R37">
-        <v>0.3999489473737583</v>
+        <v>0.3348811241469273</v>
       </c>
       <c r="S37">
         <v>0.4499999999999886</v>
@@ -5962,34 +5479,25 @@
       <c r="AZ37">
         <v>0.4499999999999886</v>
       </c>
-      <c r="BA37">
-        <v>0.4499999999999886</v>
-      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:52">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
-      <c r="M38">
-        <v>0.2578290599570074</v>
-      </c>
-      <c r="N38">
-        <v>0.2816466732446642</v>
-      </c>
       <c r="O38">
-        <v>0.3044159488034215</v>
+        <v>0.2665210397198243</v>
       </c>
       <c r="P38">
-        <v>0.2859293705804005</v>
+        <v>0.2771609790502062</v>
       </c>
       <c r="Q38">
-        <v>0.2999999999999829</v>
+        <v>0.2871431966123322</v>
       </c>
       <c r="R38">
-        <v>0.3899505953201583</v>
+        <v>0.2957762140465984</v>
       </c>
       <c r="S38">
-        <v>0.4000000000000057</v>
+        <v>0.2856409951801441</v>
       </c>
       <c r="T38">
         <v>0.4000000000000057</v>
@@ -6090,34 +5598,25 @@
       <c r="AZ38">
         <v>0.4000000000000057</v>
       </c>
-      <c r="BA38">
-        <v>0.4000000000000057</v>
-      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:52">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
-      <c r="M39">
-        <v>0.2578252281528299</v>
-      </c>
-      <c r="N39">
-        <v>0.2813840245007632</v>
-      </c>
       <c r="O39">
-        <v>0.2975414011852295</v>
+        <v>0.2665610652628341</v>
       </c>
       <c r="P39">
-        <v>0.2836415242979184</v>
+        <v>0.2772713647248221</v>
       </c>
       <c r="Q39">
-        <v>0.2921289276813278</v>
+        <v>0.2883718425804104</v>
       </c>
       <c r="R39">
-        <v>0.3931773971966379</v>
+        <v>0.3066446680504089</v>
       </c>
       <c r="S39">
-        <v>0.4000000000000057</v>
+        <v>0.3379848206986323</v>
       </c>
       <c r="T39">
         <v>0.3500000000000085</v>
@@ -6218,37 +5717,25 @@
       <c r="AZ39">
         <v>0.3500000000000085</v>
       </c>
-      <c r="BA39">
-        <v>0.3500000000000085</v>
-      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:52">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
-      <c r="M40">
-        <v>0.2578263545954544</v>
-      </c>
-      <c r="N40">
-        <v>0.2815004231372426</v>
-      </c>
-      <c r="O40">
-        <v>0.2994506713572007</v>
-      </c>
       <c r="P40">
-        <v>0.2845892704591828</v>
+        <v>0.2772211978252542</v>
       </c>
       <c r="Q40">
-        <v>0.2932616648479648</v>
+        <v>0.2876284014458195</v>
       </c>
       <c r="R40">
-        <v>0.3945772848806826</v>
+        <v>0.2972909165017523</v>
       </c>
       <c r="S40">
-        <v>0.4000000000000057</v>
+        <v>0.2948240367892488</v>
       </c>
       <c r="T40">
-        <v>0.2999999999999829</v>
+        <v>0.3248079786579625</v>
       </c>
       <c r="U40">
         <v>0.4499999999999744</v>
@@ -6346,31 +5833,25 @@
       <c r="AZ40">
         <v>0.4499999999999744</v>
       </c>
-      <c r="BA40">
-        <v>0.4499999999999744</v>
-      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:52">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
-      <c r="O41">
-        <v>0.2977476998528541</v>
-      </c>
       <c r="P41">
-        <v>0.2841063570049813</v>
+        <v>0.2772432649160816</v>
       </c>
       <c r="Q41">
-        <v>0.2917012212767427</v>
+        <v>0.2879402823261439</v>
       </c>
       <c r="R41">
-        <v>0.3940982164117486</v>
+        <v>0.3006106936942041</v>
       </c>
       <c r="S41">
-        <v>0.4000000000000057</v>
+        <v>0.3115128568348104</v>
       </c>
       <c r="T41">
-        <v>0.2999999999999829</v>
+        <v>0.3154855369485735</v>
       </c>
       <c r="U41">
         <v>0.4250000000000114</v>
@@ -6468,34 +5949,25 @@
       <c r="AZ41">
         <v>0.4250000000000114</v>
       </c>
-      <c r="BA41">
-        <v>0.4250000000000114</v>
-      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:52">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
-      <c r="O42">
-        <v>0.2983369958561768</v>
-      </c>
-      <c r="P42">
-        <v>0.2843232119919749</v>
-      </c>
       <c r="Q42">
-        <v>0.2921268930177768</v>
+        <v>0.2877737007858547</v>
       </c>
       <c r="R42">
-        <v>0.3936222197467032</v>
+        <v>0.2982914357325918</v>
       </c>
       <c r="S42">
-        <v>0.4000000000000057</v>
+        <v>0.2998517862189894</v>
       </c>
       <c r="T42">
-        <v>0.2999999999999829</v>
+        <v>0.3104762849178017</v>
       </c>
       <c r="U42">
-        <v>0.3799999999999955</v>
+        <v>0.3414132419425153</v>
       </c>
       <c r="V42">
         <v>0.4000000000000057</v>
@@ -6590,37 +6062,28 @@
       <c r="AZ42">
         <v>0.4000000000000057</v>
       </c>
-      <c r="BA42">
-        <v>0.4000000000000057</v>
-      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:52">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
-      <c r="O43">
-        <v>0.2979035941262736</v>
-      </c>
-      <c r="P43">
-        <v>0.2842181518207571</v>
-      </c>
       <c r="Q43">
-        <v>0.2917885929258776</v>
+        <v>0.2878493179227363</v>
       </c>
       <c r="R43">
-        <v>0.3354931871622849</v>
+        <v>0.2992443092628168</v>
       </c>
       <c r="S43">
-        <v>0.3326884460297673</v>
+        <v>0.304939380344608</v>
       </c>
       <c r="T43">
-        <v>0.2999999999999829</v>
+        <v>0.3087670516895057</v>
       </c>
       <c r="U43">
-        <v>0.3799999999999955</v>
+        <v>0.3409836431218988</v>
       </c>
       <c r="V43">
-        <v>0.4499999999999886</v>
+        <v>0.3399435351041928</v>
       </c>
       <c r="W43">
         <v>0.4000000000000057</v>
@@ -6712,40 +6175,28 @@
       <c r="AZ43">
         <v>0.4000000000000057</v>
       </c>
-      <c r="BA43">
-        <v>0.4000000000000057</v>
-      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:52">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
-      <c r="O44">
-        <v>0.2980763322988081</v>
-      </c>
-      <c r="P44">
-        <v>0.2842667590268592</v>
-      </c>
-      <c r="Q44">
-        <v>0.2919128519095765</v>
-      </c>
       <c r="R44">
-        <v>0.3380946254689418</v>
+        <v>0.2986544991419602</v>
       </c>
       <c r="S44">
-        <v>0.3371617422757825</v>
+        <v>0.3017245299506131</v>
       </c>
       <c r="T44">
-        <v>0.2999999999999829</v>
+        <v>0.3077576144349679</v>
       </c>
       <c r="U44">
-        <v>0.3799999999999955</v>
+        <v>0.3199431863148561</v>
       </c>
       <c r="V44">
-        <v>0.4999999999999858</v>
+        <v>0.3372511847789201</v>
       </c>
       <c r="W44">
-        <v>0.4000000000000057</v>
+        <v>0.3359867571224274</v>
       </c>
       <c r="X44">
         <v>0.4000000000000057</v>
@@ -6834,37 +6285,31 @@
       <c r="AZ44">
         <v>0.4000000000000057</v>
       </c>
-      <c r="BA44">
-        <v>0.4000000000000057</v>
-      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:52">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
-      <c r="Q45">
-        <v>0.291834907842888</v>
-      </c>
       <c r="R45">
-        <v>0.3219954633851315</v>
+        <v>0.2989193735524568</v>
       </c>
       <c r="S45">
-        <v>0.3192019861537068</v>
+        <v>0.3032377053995849</v>
       </c>
       <c r="T45">
-        <v>0.2999999999999829</v>
+        <v>0.3074526644954337</v>
       </c>
       <c r="U45">
-        <v>0.3799999999999955</v>
+        <v>0.3213130999418554</v>
       </c>
       <c r="V45">
-        <v>0.4999999999999858</v>
+        <v>0.3217900497827763</v>
       </c>
       <c r="W45">
-        <v>0.4399999999999977</v>
+        <v>0.3397215830431345</v>
       </c>
       <c r="X45">
-        <v>0.4000000000000057</v>
+        <v>0.3384651294836312</v>
       </c>
       <c r="Y45">
         <v>0.4000000000000057</v>
@@ -6950,40 +6395,31 @@
       <c r="AZ45">
         <v>0.4000000000000057</v>
       </c>
-      <c r="BA45">
-        <v>0.4000000000000057</v>
-      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:52">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
-      <c r="Q46">
-        <v>0.2918681858172927</v>
-      </c>
-      <c r="R46">
-        <v>0.323467190797662</v>
-      </c>
       <c r="S46">
-        <v>0.3215693181842076</v>
+        <v>0.3023391152522372</v>
       </c>
       <c r="T46">
-        <v>0.2999999999999829</v>
+        <v>0.3072455902181965</v>
       </c>
       <c r="U46">
-        <v>0.3799999999999955</v>
+        <v>0.3159129553742643</v>
       </c>
       <c r="V46">
-        <v>0.4999999999999858</v>
+        <v>0.3220713821779962</v>
       </c>
       <c r="W46">
-        <v>0.4000000000000057</v>
+        <v>0.3224183860498643</v>
       </c>
       <c r="X46">
-        <v>0.4000000000000057</v>
+        <v>0.3417360140755328</v>
       </c>
       <c r="Y46">
-        <v>0.4000000000000057</v>
+        <v>0.3407587468335834</v>
       </c>
       <c r="Z46">
         <v>0.3</v>
@@ -7066,43 +6502,34 @@
       <c r="AZ46">
         <v>0.3</v>
       </c>
-      <c r="BA46">
-        <v>0.3</v>
-      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:52">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
-      <c r="Q47">
-        <v>0.2918495585514016</v>
-      </c>
-      <c r="R47">
-        <v>0.3189731263238313</v>
-      </c>
       <c r="S47">
-        <v>0.3166993735510716</v>
+        <v>0.3027827726791035</v>
       </c>
       <c r="T47">
-        <v>0.3044360907494694</v>
+        <v>0.3071936822882388</v>
       </c>
       <c r="U47">
-        <v>0.3347601118252969</v>
+        <v>0.3166376743903484</v>
       </c>
       <c r="V47">
-        <v>0.4499999999999886</v>
+        <v>0.3180291164870708</v>
       </c>
       <c r="W47">
-        <v>0.5500000000000114</v>
+        <v>0.3244247679690764</v>
       </c>
       <c r="X47">
-        <v>0.5900000000000034</v>
+        <v>0.3248062747315006</v>
       </c>
       <c r="Y47">
-        <v>0.5799999999999983</v>
+        <v>0.3436231941016878</v>
       </c>
       <c r="Z47">
-        <v>0.5</v>
+        <v>0.3444360299135082</v>
       </c>
       <c r="AA47">
         <v>0.539999999999992</v>
@@ -7182,46 +6609,34 @@
       <c r="AZ47">
         <v>0.539999999999992</v>
       </c>
-      <c r="BA47">
-        <v>0.539999999999992</v>
-      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:52">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
-      <c r="Q48">
-        <v>0.2918581473974281</v>
-      </c>
-      <c r="R48">
-        <v>0.3195888703439531</v>
-      </c>
-      <c r="S48">
-        <v>0.3176441987220456</v>
-      </c>
       <c r="T48">
-        <v>0.3040194810592373</v>
+        <v>0.3071502168841923</v>
       </c>
       <c r="U48">
-        <v>0.3372093884380181</v>
+        <v>0.315225484748799</v>
       </c>
       <c r="V48">
-        <v>0.4499999999999886</v>
+        <v>0.3183591188500912</v>
       </c>
       <c r="W48">
-        <v>0.4200000000000017</v>
+        <v>0.3196894411138585</v>
       </c>
       <c r="X48">
-        <v>0.4799999999999898</v>
+        <v>0.3265968327972467</v>
       </c>
       <c r="Y48">
-        <v>0.4499999999999886</v>
+        <v>0.3270575058807565</v>
       </c>
       <c r="Z48">
-        <v>0.4</v>
+        <v>0.3147407770026998</v>
       </c>
       <c r="AA48">
-        <v>0.09999999999999432</v>
+        <v>0.3083788519283604</v>
       </c>
       <c r="AB48">
         <v>-0.3</v>
@@ -7298,46 +6713,37 @@
       <c r="AZ48">
         <v>-0.3</v>
       </c>
-      <c r="BA48">
-        <v>-0.3</v>
-      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:52">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
-      <c r="R49">
-        <v>0.3183247252692791</v>
-      </c>
-      <c r="S49">
-        <v>0.3163035408657456</v>
-      </c>
       <c r="T49">
-        <v>0.3050790742125355</v>
+        <v>0.3071421425178494</v>
       </c>
       <c r="U49">
-        <v>0.3248117017003969</v>
+        <v>0.3155073867441933</v>
       </c>
       <c r="V49">
-        <v>0.4499999999999886</v>
+        <v>0.3172859908227365</v>
       </c>
       <c r="W49">
-        <v>0.4200000000000017</v>
+        <v>0.320501229993109</v>
       </c>
       <c r="X49">
-        <v>0.4000000000000057</v>
+        <v>0.3218917068757648</v>
       </c>
       <c r="Y49">
-        <v>0.4000000000000057</v>
+        <v>0.3286527852299989</v>
       </c>
       <c r="Z49">
-        <v>0.4</v>
+        <v>0.3284477703528166</v>
       </c>
       <c r="AA49">
-        <v>0.2999999999999829</v>
+        <v>0.3899195080048564</v>
       </c>
       <c r="AB49">
-        <v>0.3</v>
+        <v>0.4778971241029284</v>
       </c>
       <c r="AC49">
         <v>0.09999999999996589</v>
@@ -7411,49 +6817,37 @@
       <c r="AZ49">
         <v>0.09999999999996589</v>
       </c>
-      <c r="BA49">
-        <v>0.09999999999996589</v>
-      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:52">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
-      <c r="R50">
-        <v>0.3185533830141835</v>
-      </c>
-      <c r="S50">
-        <v>0.3166405574762979</v>
-      </c>
-      <c r="T50">
-        <v>0.304883727995148</v>
-      </c>
       <c r="U50">
-        <v>0.3261469381205065</v>
+        <v>0.3151315953245783</v>
       </c>
       <c r="V50">
-        <v>0.4499999999999886</v>
+        <v>0.3174400550524125</v>
       </c>
       <c r="W50">
-        <v>0.4200000000000017</v>
+        <v>0.3191899962611569</v>
       </c>
       <c r="X50">
-        <v>0.4000000000000057</v>
+        <v>0.3226293746666363</v>
       </c>
       <c r="Y50">
-        <v>0.2799999999999869</v>
+        <v>0.3239821002466873</v>
       </c>
       <c r="Z50">
-        <v>0.3</v>
+        <v>0.3196033837862348</v>
       </c>
       <c r="AA50">
-        <v>0.2999999999999829</v>
+        <v>0.3188526264989314</v>
       </c>
       <c r="AB50">
-        <v>0.3</v>
+        <v>0.1075019243100533</v>
       </c>
       <c r="AC50">
-        <v>0.2000000000000028</v>
+        <v>0.1586839256060874</v>
       </c>
       <c r="AD50">
         <v>0.1399999999999864</v>
@@ -7524,52 +6918,40 @@
       <c r="AZ50">
         <v>0.1399999999999864</v>
       </c>
-      <c r="BA50">
-        <v>0.1399999999999864</v>
-      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:52">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
-      <c r="R51">
-        <v>0.3181951824026007</v>
-      </c>
-      <c r="S51">
-        <v>0.3162663733872784</v>
-      </c>
-      <c r="T51">
-        <v>0.305145819977245</v>
-      </c>
       <c r="U51">
-        <v>0.3227134851972293</v>
+        <v>0.3152290588839251</v>
       </c>
       <c r="V51">
-        <v>0.3859005259107058</v>
+        <v>0.3171509429330391</v>
       </c>
       <c r="W51">
-        <v>0.3636841723358841</v>
+        <v>0.3194831680708755</v>
       </c>
       <c r="X51">
-        <v>0.3572358292393366</v>
+        <v>0.3213089634929434</v>
       </c>
       <c r="Y51">
-        <v>0.2450000000000045</v>
+        <v>0.3246502981487615</v>
       </c>
       <c r="Z51">
-        <v>0.3</v>
+        <v>0.3238152948462211</v>
       </c>
       <c r="AA51">
-        <v>0.2999999999999829</v>
+        <v>0.3461466106776279</v>
       </c>
       <c r="AB51">
-        <v>0.3</v>
+        <v>0.3932990517633901</v>
       </c>
       <c r="AC51">
-        <v>0.2000000000000028</v>
+        <v>0.2557334606109394</v>
       </c>
       <c r="AD51">
-        <v>0.2999999999999829</v>
+        <v>0.2537816535665574</v>
       </c>
       <c r="AE51">
         <v>-0.09999999999996589</v>
@@ -7637,55 +7019,40 @@
       <c r="AZ51">
         <v>-0.09999999999996589</v>
       </c>
-      <c r="BA51">
-        <v>-0.09999999999996589</v>
-      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:52">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
-      <c r="R52">
-        <v>0.3182748661352995</v>
-      </c>
-      <c r="S52">
-        <v>0.3163796731651742</v>
-      </c>
-      <c r="T52">
-        <v>0.3050762689691883</v>
-      </c>
-      <c r="U52">
-        <v>0.3232613703296294</v>
-      </c>
       <c r="V52">
-        <v>0.3838760650987078</v>
+        <v>0.3172094095409025</v>
       </c>
       <c r="W52">
-        <v>0.3639988183945959</v>
+        <v>0.3191160916135244</v>
       </c>
       <c r="X52">
-        <v>0.3571485796261236</v>
+        <v>0.3215800160217714</v>
       </c>
       <c r="Y52">
-        <v>0.2450000000000045</v>
+        <v>0.3233228409564536</v>
       </c>
       <c r="Z52">
-        <v>0.3</v>
+        <v>0.3211744411185766</v>
       </c>
       <c r="AA52">
-        <v>0.2999999999999829</v>
+        <v>0.3242193812072494</v>
       </c>
       <c r="AB52">
-        <v>0.3</v>
+        <v>0.2393274748356136</v>
       </c>
       <c r="AC52">
-        <v>0.2999999999999829</v>
+        <v>0.2679099385256626</v>
       </c>
       <c r="AD52">
-        <v>0.2490000000000094</v>
+        <v>0.2615785580730849</v>
       </c>
       <c r="AE52">
-        <v>-7</v>
+        <v>0.2393845652839828</v>
       </c>
       <c r="AF52">
         <v>-10.8</v>
@@ -7750,52 +7117,40 @@
       <c r="AZ52">
         <v>-10.8</v>
       </c>
-      <c r="BA52">
-        <v>-10.8</v>
-      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:52">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
-      <c r="T53">
-        <v>0.3051430917796482</v>
-      </c>
-      <c r="U53">
-        <v>0.3223008571460159</v>
-      </c>
-      <c r="V53">
-        <v>0.3612539709119106</v>
-      </c>
       <c r="W53">
-        <v>0.34599925176031</v>
+        <v>0.3192157568048095</v>
       </c>
       <c r="X53">
-        <v>0.3439073266976164</v>
+        <v>0.3212060617638179</v>
       </c>
       <c r="Y53">
-        <v>0.2450000000000045</v>
+        <v>0.3235723130964481</v>
       </c>
       <c r="Z53">
-        <v>0.3</v>
+        <v>0.3224647327887408</v>
       </c>
       <c r="AA53">
-        <v>0.2999999999999829</v>
+        <v>0.3332555014845815</v>
       </c>
       <c r="AB53">
-        <v>0.3</v>
+        <v>0.3472529491722895</v>
       </c>
       <c r="AC53">
-        <v>0.2999999999999829</v>
+        <v>0.29150452842733</v>
       </c>
       <c r="AD53">
-        <v>0.2490000000000094</v>
+        <v>0.2902488028095943</v>
       </c>
       <c r="AE53">
-        <v>3.299999999999997</v>
+        <v>0.1729351635279464</v>
       </c>
       <c r="AF53">
-        <v>8.199999999999999</v>
+        <v>7.25</v>
       </c>
       <c r="AG53">
         <v>7.25</v>
@@ -7857,55 +7212,40 @@
       <c r="AZ53">
         <v>7.25</v>
       </c>
-      <c r="BA53">
-        <v>7.25</v>
-      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:52">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
-      <c r="T54">
-        <v>0.3051208168533961</v>
-      </c>
-      <c r="U54">
-        <v>0.322501397415604</v>
-      </c>
-      <c r="V54">
-        <v>0.3598270380689073</v>
-      </c>
-      <c r="W54">
-        <v>0.3462003751873833</v>
-      </c>
       <c r="X54">
-        <v>0.3438532961196713</v>
+        <v>0.321299746590206</v>
       </c>
       <c r="Y54">
-        <v>0.2450000000000045</v>
+        <v>0.3231921559508861</v>
       </c>
       <c r="Z54">
-        <v>0.3</v>
+        <v>0.3216745187860917</v>
       </c>
       <c r="AA54">
-        <v>0.2999999999999829</v>
+        <v>0.3264569759648212</v>
       </c>
       <c r="AB54">
-        <v>0.3</v>
+        <v>0.2850261102631687</v>
       </c>
       <c r="AC54">
-        <v>0.3599999999999994</v>
+        <v>0.2939504578104744</v>
       </c>
       <c r="AD54">
-        <v>0.2999999999999829</v>
+        <v>0.2916351782591038</v>
       </c>
       <c r="AE54">
-        <v>2.399999999999977</v>
+        <v>0.2733929912691354</v>
       </c>
       <c r="AF54">
-        <v>3</v>
+        <v>-18.48458783797119</v>
       </c>
       <c r="AG54">
-        <v>2.439999999999998</v>
+        <v>-0.7999999999999972</v>
       </c>
       <c r="AH54">
         <v>-0.7999999999999972</v>
@@ -7964,58 +7304,40 @@
       <c r="AZ54">
         <v>-0.7999999999999972</v>
       </c>
-      <c r="BA54">
-        <v>-0.7999999999999972</v>
-      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:52">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
-      <c r="T55">
-        <v>0.3051382805349655</v>
-      </c>
-      <c r="U55">
-        <v>0.322230133416483</v>
-      </c>
-      <c r="V55">
-        <v>0.351820708946623</v>
-      </c>
-      <c r="W55">
-        <v>0.3404468232595632</v>
-      </c>
-      <c r="X55">
-        <v>0.3397532952765443</v>
-      </c>
       <c r="Y55">
-        <v>0.3037567879208373</v>
+        <v>0.3232797142824625</v>
       </c>
       <c r="Z55">
-        <v>0.3230246465182776</v>
+        <v>0.3220688248884201</v>
       </c>
       <c r="AA55">
-        <v>0.3184796944480148</v>
+        <v>0.3294237779225556</v>
       </c>
       <c r="AB55">
-        <v>0.3128380690840014</v>
+        <v>0.3264493670738048</v>
       </c>
       <c r="AC55">
-        <v>0.3599999999999994</v>
+        <v>0.29969874325514</v>
       </c>
       <c r="AD55">
-        <v>0.5400000000000063</v>
+        <v>0.2988712760315299</v>
       </c>
       <c r="AE55">
-        <v>2.40000000000002</v>
+        <v>0.2550968966823116</v>
       </c>
       <c r="AF55">
-        <v>0.8</v>
+        <v>21.03069736029921</v>
       </c>
       <c r="AG55">
-        <v>0.6999999999999886</v>
+        <v>-1.117711925642781</v>
       </c>
       <c r="AH55">
-        <v>0</v>
+        <v>-2.400000000000006</v>
       </c>
       <c r="AI55">
         <v>-2.400000000000006</v>
@@ -8071,61 +7393,40 @@
       <c r="AZ55">
         <v>-2.400000000000006</v>
       </c>
-      <c r="BA55">
-        <v>-2.400000000000006</v>
-      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:52">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
-      <c r="T56">
-        <v>0.305131516384823</v>
-      </c>
-      <c r="U56">
-        <v>0.3222991884881315</v>
-      </c>
-      <c r="V56">
-        <v>0.3510656719812755</v>
-      </c>
-      <c r="W56">
-        <v>0.3405432457684585</v>
-      </c>
-      <c r="X56">
-        <v>0.3397282007546805</v>
-      </c>
-      <c r="Y56">
-        <v>0.303396001632184</v>
-      </c>
       <c r="Z56">
-        <v>0.3217786776336742</v>
+        <v>0.3218319492654922</v>
       </c>
       <c r="AA56">
-        <v>0.3168361197167653</v>
+        <v>0.3273070275564401</v>
       </c>
       <c r="AB56">
-        <v>0.3113359601143785</v>
+        <v>0.3016594088101138</v>
       </c>
       <c r="AC56">
-        <v>0.2999999999999829</v>
+        <v>0.3001665497432005</v>
       </c>
       <c r="AD56">
-        <v>0.4399999999999977</v>
+        <v>0.2990738437681488</v>
       </c>
       <c r="AE56">
-        <v>1.59999999999998</v>
+        <v>0.2848539676400164</v>
       </c>
       <c r="AF56">
-        <v>1</v>
+        <v>-37.13649255743979</v>
       </c>
       <c r="AG56">
-        <v>0.8999999999999915</v>
+        <v>1.188917548463434</v>
       </c>
       <c r="AH56">
-        <v>3.099999999999994</v>
+        <v>2.01732929742349</v>
       </c>
       <c r="AI56">
-        <v>3.299999999999997</v>
+        <v>3.480874220397794</v>
       </c>
       <c r="AJ56">
         <v>3.480874220397794</v>
@@ -8178,58 +7479,40 @@
       <c r="AZ56">
         <v>3.480874220397794</v>
       </c>
-      <c r="BA56">
-        <v>3.480874220397794</v>
-      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:52">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
-      <c r="V57">
-        <v>0.3482242046839505</v>
-      </c>
-      <c r="W57">
-        <v>0.338703946411</v>
-      </c>
-      <c r="X57">
-        <v>0.3384586658415252</v>
-      </c>
-      <c r="Y57">
-        <v>0.3211769783998975</v>
-      </c>
-      <c r="Z57">
-        <v>0.3283422126894426</v>
-      </c>
       <c r="AA57">
-        <v>0.3218628944904727</v>
+        <v>0.3282749106744321</v>
       </c>
       <c r="AB57">
-        <v>0.3141745417428133</v>
+        <v>0.3177063961802378</v>
       </c>
       <c r="AC57">
-        <v>0.2999999999999829</v>
+        <v>0.3015699747101553</v>
       </c>
       <c r="AD57">
-        <v>0.3400000000000034</v>
+        <v>0.3009031943699652</v>
       </c>
       <c r="AE57">
-        <v>0.3395033678436903</v>
+        <v>0.2798492691513785</v>
       </c>
       <c r="AF57">
-        <v>0.4</v>
+        <v>50.55485974166423</v>
       </c>
       <c r="AG57">
-        <v>0.4000000000000057</v>
+        <v>-0.06440863064223457</v>
       </c>
       <c r="AH57">
-        <v>0.8999999999999915</v>
+        <v>-0.1200096981321251</v>
       </c>
       <c r="AI57">
-        <v>4.600000000000009</v>
+        <v>-1.020115746111564</v>
       </c>
       <c r="AJ57">
-        <v>6.699999999999989</v>
+        <v>6.400000000000006</v>
       </c>
       <c r="AK57">
         <v>6.400000000000006</v>
@@ -8279,61 +7562,40 @@
       <c r="AZ57">
         <v>6.400000000000006</v>
       </c>
-      <c r="BA57">
-        <v>6.400000000000006</v>
-      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:52">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
-      <c r="V58">
-        <v>0.3478687465351139</v>
-      </c>
-      <c r="W58">
-        <v>0.3387450382719313</v>
-      </c>
-      <c r="X58">
-        <v>0.3384483056529312</v>
-      </c>
-      <c r="Y58">
-        <v>0.3209586297389168</v>
-      </c>
-      <c r="Z58">
-        <v>0.3276354955917598</v>
-      </c>
-      <c r="AA58">
-        <v>0.3209817379103602</v>
-      </c>
       <c r="AB58">
-        <v>0.3135308532425542</v>
+        <v>0.3079049783984288</v>
       </c>
       <c r="AC58">
-        <v>0.2999999999999829</v>
+        <v>0.3016523601129527</v>
       </c>
       <c r="AD58">
-        <v>0.3400000000000034</v>
+        <v>0.3009169245916942</v>
       </c>
       <c r="AE58">
-        <v>0.3395050482216391</v>
+        <v>0.2886702602362774</v>
       </c>
       <c r="AF58">
-        <v>0.4</v>
+        <v>-79.86741878742983</v>
       </c>
       <c r="AG58">
-        <v>0.4000000000000057</v>
+        <v>0.05394736135582895</v>
       </c>
       <c r="AH58">
-        <v>0.6400000000000006</v>
+        <v>-0.2744079479771123</v>
       </c>
       <c r="AI58">
-        <v>1.799999999999997</v>
+        <v>-0.2226368495761653</v>
       </c>
       <c r="AJ58">
-        <v>2.400000000000006</v>
+        <v>-4.320282024378931</v>
       </c>
       <c r="AK58">
-        <v>2.600000000000009</v>
+        <v>-1.099999999999994</v>
       </c>
       <c r="AL58">
         <v>-1.099999999999994</v>
@@ -8380,64 +7642,40 @@
       <c r="AZ58">
         <v>-1.099999999999994</v>
       </c>
-      <c r="BA58">
-        <v>-1.099999999999994</v>
-      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:52">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
-      <c r="V59">
-        <v>0.3468575389875294</v>
-      </c>
-      <c r="W59">
-        <v>0.3381569924479106</v>
-      </c>
-      <c r="X59">
-        <v>0.3380551982801273</v>
-      </c>
-      <c r="Y59">
-        <v>0.3263401785292904</v>
-      </c>
-      <c r="Z59">
-        <v>0.3295255568824084</v>
-      </c>
-      <c r="AA59">
-        <v>0.3223877083356657</v>
-      </c>
-      <c r="AB59">
-        <v>0.3141949364587926</v>
-      </c>
       <c r="AC59">
-        <v>0.3211116666909853</v>
+        <v>0.301995743646784</v>
       </c>
       <c r="AD59">
-        <v>0.3343986802169655</v>
+        <v>0.3013801711910776</v>
       </c>
       <c r="AE59">
-        <v>0.3364398929309351</v>
+        <v>0.2873119750840919</v>
       </c>
       <c r="AF59">
-        <v>0.2763279426040251</v>
+        <v>115.6020651914413</v>
       </c>
       <c r="AG59">
-        <v>0.4399999999999977</v>
+        <v>0.3157909416827639</v>
       </c>
       <c r="AH59">
-        <v>0.4399999999999977</v>
+        <v>0.5158349036820887</v>
       </c>
       <c r="AI59">
-        <v>0.6702186666061891</v>
+        <v>0.8421046715701337</v>
       </c>
       <c r="AJ59">
-        <v>0.5999999999999943</v>
+        <v>0.1864140018294571</v>
       </c>
       <c r="AK59">
-        <v>0.8999999999999915</v>
+        <v>-1.016773349152483</v>
       </c>
       <c r="AL59">
-        <v>-1.400000000000006</v>
+        <v>0.4209467346675666</v>
       </c>
       <c r="AM59">
         <v>0.4209467346675666</v>
@@ -8481,67 +7719,40 @@
       <c r="AZ59">
         <v>0.4209467346675666</v>
       </c>
-      <c r="BA59">
-        <v>0.4209467346675666</v>
-      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:52">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
-      <c r="V60">
-        <v>0.3467005075865507</v>
-      </c>
-      <c r="W60">
-        <v>0.3381734103856286</v>
-      </c>
-      <c r="X60">
-        <v>0.3380511884163439</v>
-      </c>
-      <c r="Y60">
-        <v>0.3262410655932162</v>
-      </c>
-      <c r="Z60">
-        <v>0.3292238858210866</v>
-      </c>
-      <c r="AA60">
-        <v>0.3220299433943221</v>
-      </c>
-      <c r="AB60">
-        <v>0.3139837242123185</v>
-      </c>
-      <c r="AC60">
-        <v>0.321847656302084</v>
-      </c>
       <c r="AD60">
-        <v>0.3341159106285008</v>
+        <v>0.3013741294545997</v>
       </c>
       <c r="AE60">
-        <v>0.3366816638484299</v>
+        <v>0.2899287786872752</v>
       </c>
       <c r="AF60">
-        <v>0.3237184457413259</v>
+        <v>-176.084616486668</v>
       </c>
       <c r="AG60">
-        <v>0.4399999999999977</v>
+        <v>0.1328012322361241</v>
       </c>
       <c r="AH60">
-        <v>0.4399999999999977</v>
+        <v>0.09046296742231223</v>
       </c>
       <c r="AI60">
-        <v>0.5662147808798181</v>
+        <v>-0.1096454305380603</v>
       </c>
       <c r="AJ60">
-        <v>0.4999999999999858</v>
+        <v>2.127593497535554</v>
       </c>
       <c r="AK60">
-        <v>0.6999999999999886</v>
+        <v>1.2732305725054</v>
       </c>
       <c r="AL60">
-        <v>4.5</v>
+        <v>0.6492901975189274</v>
       </c>
       <c r="AM60">
-        <v>1.590000000000003</v>
+        <v>1.540000000000006</v>
       </c>
       <c r="AN60">
         <v>1.540000000000006</v>
@@ -8582,61 +7793,40 @@
       <c r="AZ60">
         <v>1.540000000000006</v>
       </c>
-      <c r="BA60">
-        <v>1.540000000000006</v>
-      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:52">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
-      <c r="Y61">
-        <v>0.3278700353512072</v>
-      </c>
-      <c r="Z61">
-        <v>0.3297734672778472</v>
-      </c>
-      <c r="AA61">
-        <v>0.3224330878922781</v>
-      </c>
-      <c r="AB61">
-        <v>0.3141461788215196</v>
-      </c>
-      <c r="AC61">
-        <v>0.3252399581808387</v>
-      </c>
-      <c r="AD61">
-        <v>0.3331886914378789</v>
-      </c>
       <c r="AE61">
-        <v>0.336923027055929</v>
+        <v>0.2895636348684643</v>
       </c>
       <c r="AF61">
-        <v>0.3360162000526832</v>
+        <v>260.2553130220158</v>
       </c>
       <c r="AG61">
-        <v>0.4399999999999977</v>
+        <v>0.1698380955487392</v>
       </c>
       <c r="AH61">
-        <v>0.4399999999999977</v>
+        <v>0.08873491133057632</v>
       </c>
       <c r="AI61">
-        <v>0.4574717453261741</v>
+        <v>0.1213218998627776</v>
       </c>
       <c r="AJ61">
-        <v>0.4743946884993022</v>
+        <v>-0.7229922452241589</v>
       </c>
       <c r="AK61">
-        <v>0.5999999999999943</v>
+        <v>0.2915171204668768</v>
       </c>
       <c r="AL61">
-        <v>2.450000000000003</v>
+        <v>0.1432858664967987</v>
       </c>
       <c r="AM61">
-        <v>1.173955701213345</v>
+        <v>-0.2061000558870906</v>
       </c>
       <c r="AN61">
-        <v>1.200000000000003</v>
+        <v>-0.1490000000000009</v>
       </c>
       <c r="AO61">
         <v>-0.1490000000000009</v>
@@ -8674,64 +7864,40 @@
       <c r="AZ61">
         <v>-0.1490000000000009</v>
       </c>
-      <c r="BA61">
-        <v>-0.1490000000000009</v>
-      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:52">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
-      <c r="Y62">
-        <v>0.3278300431174498</v>
-      </c>
-      <c r="Z62">
-        <v>0.3296586142751882</v>
-      </c>
-      <c r="AA62">
-        <v>0.3223027445967718</v>
-      </c>
-      <c r="AB62">
-        <v>0.3140833620146666</v>
-      </c>
-      <c r="AC62">
-        <v>0.325475586850865</v>
-      </c>
-      <c r="AD62">
-        <v>0.3330957950719757</v>
-      </c>
-      <c r="AE62">
-        <v>0.3368834346028511</v>
-      </c>
       <c r="AF62">
-        <v>0.3196325834569514</v>
+        <v>-391.5626652564073</v>
       </c>
       <c r="AG62">
-        <v>0.4399999999999977</v>
+        <v>0.1966157740455504</v>
       </c>
       <c r="AH62">
-        <v>0.4399999999999977</v>
+        <v>0.2285498316345972</v>
       </c>
       <c r="AI62">
-        <v>0.4261130262551092</v>
+        <v>0.3070221082069655</v>
       </c>
       <c r="AJ62">
-        <v>0.3865094610633548</v>
+        <v>0.00465284142171829</v>
       </c>
       <c r="AK62">
-        <v>0.4999999999999858</v>
+        <v>-0.00850979014346892</v>
       </c>
       <c r="AL62">
-        <v>0.5200000000000102</v>
+        <v>0.2908548964194992</v>
       </c>
       <c r="AM62">
-        <v>1.099999999999994</v>
+        <v>0.2089818096605524</v>
       </c>
       <c r="AN62">
-        <v>0.8499999999999943</v>
+        <v>0.1878163549825961</v>
       </c>
       <c r="AO62">
-        <v>-0.6400000000000006</v>
+        <v>-0.4999966213670604</v>
       </c>
       <c r="AP62">
         <v>-0.4999966213670604</v>
@@ -8766,67 +7932,43 @@
       <c r="AZ62">
         <v>-0.4999966213670604</v>
       </c>
-      <c r="BA62">
-        <v>-0.4999966213670604</v>
-      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:52">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
-      <c r="Y63">
-        <v>0.328323186026751</v>
-      </c>
-      <c r="Z63">
-        <v>0.3298198868859332</v>
-      </c>
-      <c r="AA63">
-        <v>0.3224208100984938</v>
-      </c>
-      <c r="AB63">
-        <v>0.3141244076300095</v>
-      </c>
-      <c r="AC63">
-        <v>0.3260247662770744</v>
-      </c>
-      <c r="AD63">
-        <v>0.3329399804233683</v>
-      </c>
-      <c r="AE63">
-        <v>0.3368660508806107</v>
-      </c>
       <c r="AF63">
-        <v>0.322882050849205</v>
+        <v>582.9146236510596</v>
       </c>
       <c r="AG63">
-        <v>0.2145527279311085</v>
+        <v>0.1713283144873901</v>
       </c>
       <c r="AH63">
-        <v>0.1715769600151463</v>
+        <v>0.144941993941119</v>
       </c>
       <c r="AI63">
-        <v>0.2925331388326259</v>
+        <v>0.1089933180513377</v>
       </c>
       <c r="AJ63">
-        <v>0.3946657685674896</v>
+        <v>0.7704958747373928</v>
       </c>
       <c r="AK63">
-        <v>0.2000000000000028</v>
+        <v>0.4210282207914254</v>
       </c>
       <c r="AL63">
-        <v>0.3500000000000085</v>
+        <v>0.3667121142201463</v>
       </c>
       <c r="AM63">
-        <v>0.9699999999999989</v>
+        <v>0.5204144760406291</v>
       </c>
       <c r="AN63">
-        <v>0.6999999999999886</v>
+        <v>0.5157237025465728</v>
       </c>
       <c r="AO63">
-        <v>-1.340000000000003</v>
+        <v>0.7877419919480451</v>
       </c>
       <c r="AP63">
-        <v>-0.950099999999992</v>
+        <v>-0.7399999999999949</v>
       </c>
       <c r="AQ63">
         <v>-0.7399999999999949</v>
@@ -8858,70 +8000,43 @@
       <c r="AZ63">
         <v>-0.7399999999999949</v>
       </c>
-      <c r="BA63">
-        <v>-0.7399999999999949</v>
-      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:52">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
-      <c r="Y64">
-        <v>0.3283080570243994</v>
-      </c>
-      <c r="Z64">
-        <v>0.329778755379686</v>
-      </c>
-      <c r="AA64">
-        <v>0.3223758849806806</v>
-      </c>
-      <c r="AB64">
-        <v>0.3141065758699264</v>
-      </c>
-      <c r="AC64">
-        <v>0.3260814869622123</v>
-      </c>
-      <c r="AD64">
-        <v>0.3329169735517828</v>
-      </c>
-      <c r="AE64">
-        <v>0.3368707870206093</v>
-      </c>
-      <c r="AF64">
-        <v>0.3256717755417545</v>
-      </c>
       <c r="AG64">
-        <v>0.3030146877609614</v>
+        <v>0.1789266139004776</v>
       </c>
       <c r="AH64">
-        <v>0.308220798562382</v>
+        <v>0.1496620878749129</v>
       </c>
       <c r="AI64">
-        <v>0.3474976033306822</v>
+        <v>0.169545831969457</v>
       </c>
       <c r="AJ64">
-        <v>0.4046248841354027</v>
+        <v>0.07027280922200163</v>
       </c>
       <c r="AK64">
-        <v>0.2000000000000028</v>
+        <v>0.3347243786041048</v>
       </c>
       <c r="AL64">
-        <v>0.3500000000000085</v>
+        <v>0.2953986483436876</v>
       </c>
       <c r="AM64">
-        <v>1.030000000000001</v>
+        <v>0.2760645186648159</v>
       </c>
       <c r="AN64">
-        <v>0.5999999999999943</v>
+        <v>0.286397350256843</v>
       </c>
       <c r="AO64">
-        <v>-0.4000000000000057</v>
+        <v>0.3521810409761844</v>
       </c>
       <c r="AP64">
-        <v>-0.3299999999999983</v>
+        <v>0.9442352779560147</v>
       </c>
       <c r="AQ64">
-        <v>-0.06000000000000227</v>
+        <v>-0.2510000000000048</v>
       </c>
       <c r="AR64">
         <v>-0.2510000000000048</v>
@@ -8950,61 +8065,43 @@
       <c r="AZ64">
         <v>-0.2510000000000048</v>
       </c>
-      <c r="BA64">
-        <v>-0.2510000000000048</v>
-      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:52">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
-      <c r="AC65">
-        <v>0.326171041116303</v>
-      </c>
-      <c r="AD65">
-        <v>0.3328904162879257</v>
-      </c>
-      <c r="AE65">
-        <v>0.3368718903124912</v>
-      </c>
-      <c r="AF65">
-        <v>0.3238024989227189</v>
-      </c>
-      <c r="AG65">
-        <v>0.3219675021943024</v>
-      </c>
       <c r="AH65">
-        <v>0.2868885079404567</v>
+        <v>0.1740969565036402</v>
       </c>
       <c r="AI65">
-        <v>0.3523870819471526</v>
+        <v>0.2002777303661878</v>
       </c>
       <c r="AJ65">
-        <v>0.4010376288215911</v>
+        <v>0.1322374063133873</v>
       </c>
       <c r="AK65">
+        <v>0.23760798823511</v>
+      </c>
+      <c r="AL65">
+        <v>0.3043786536307829</v>
+      </c>
+      <c r="AM65">
+        <v>0.2912498709480439</v>
+      </c>
+      <c r="AN65">
+        <v>0.2907615265308279</v>
+      </c>
+      <c r="AO65">
+        <v>0.1717499616243793</v>
+      </c>
+      <c r="AP65">
+        <v>0.3237950650863585</v>
+      </c>
+      <c r="AQ65">
+        <v>0.7776183701573165</v>
+      </c>
+      <c r="AR65">
         <v>0.2000000000000028</v>
-      </c>
-      <c r="AL65">
-        <v>0.25</v>
-      </c>
-      <c r="AM65">
-        <v>0.6799999999999926</v>
-      </c>
-      <c r="AN65">
-        <v>0.5999999999999943</v>
-      </c>
-      <c r="AO65">
-        <v>0.25</v>
-      </c>
-      <c r="AP65">
-        <v>0.5400000000000063</v>
-      </c>
-      <c r="AQ65">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="AR65">
-        <v>0.5490000000000066</v>
       </c>
       <c r="AS65">
         <v>0.2000000000000028</v>
@@ -9030,64 +8127,43 @@
       <c r="AZ65">
         <v>0.2000000000000028</v>
       </c>
-      <c r="BA65">
-        <v>0.2000000000000028</v>
-      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:52">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
-      <c r="AC66">
-        <v>0.3261832082883583</v>
-      </c>
-      <c r="AD66">
-        <v>0.3328853257774291</v>
-      </c>
-      <c r="AE66">
-        <v>0.3368714008090974</v>
-      </c>
-      <c r="AF66">
-        <v>0.3238317518447362</v>
-      </c>
-      <c r="AG66">
-        <v>0.293473848935018</v>
-      </c>
-      <c r="AH66">
-        <v>0.2731970248110616</v>
-      </c>
       <c r="AI66">
-        <v>0.3402697859857228</v>
+        <v>0.1597201372497067</v>
       </c>
       <c r="AJ66">
-        <v>0.4005708286930916</v>
+        <v>0.3822998061849808</v>
       </c>
       <c r="AK66">
-        <v>0.2000000000000028</v>
+        <v>0.3048985286969267</v>
       </c>
       <c r="AL66">
-        <v>0.25</v>
+        <v>0.3199589227163305</v>
       </c>
       <c r="AM66">
-        <v>0.4200000000000017</v>
+        <v>0.3526487722021689</v>
       </c>
       <c r="AN66">
-        <v>0.3500000000000085</v>
+        <v>0.3524490370652592</v>
       </c>
       <c r="AO66">
-        <v>0.4999999999999858</v>
+        <v>0.368683632684935</v>
       </c>
       <c r="AP66">
-        <v>0.5400000000000063</v>
+        <v>0.1135281764789672</v>
       </c>
       <c r="AQ66">
-        <v>0.5999999999999943</v>
+        <v>0.2346106192641219</v>
       </c>
       <c r="AR66">
-        <v>0.5999999999999943</v>
+        <v>0.4527708191769394</v>
       </c>
       <c r="AS66">
-        <v>0.4999999999999858</v>
+        <v>0.1200000000000045</v>
       </c>
       <c r="AT66">
         <v>0.1200000000000045</v>
@@ -9110,67 +8186,43 @@
       <c r="AZ66">
         <v>0.1200000000000045</v>
       </c>
-      <c r="BA66">
-        <v>0.1200000000000045</v>
-      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:52">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
-      <c r="AC67">
-        <v>0.3261979135161262</v>
-      </c>
-      <c r="AD67">
-        <v>0.3328807402969963</v>
-      </c>
-      <c r="AE67">
-        <v>0.3368713456964143</v>
-      </c>
-      <c r="AF67">
-        <v>0.3242809016689986</v>
-      </c>
-      <c r="AG67">
-        <v>0.3001429142107758</v>
-      </c>
-      <c r="AH67">
-        <v>0.2839996252962073</v>
-      </c>
-      <c r="AI67">
-        <v>0.3438034537251703</v>
-      </c>
       <c r="AJ67">
-        <v>0.4011760685081283</v>
+        <v>0.2246260821926414</v>
       </c>
       <c r="AK67">
-        <v>0.4886056949724811</v>
+        <v>0.3069122295648589</v>
       </c>
       <c r="AL67">
-        <v>0.5202938560335962</v>
+        <v>0.3110830145296589</v>
       </c>
       <c r="AM67">
-        <v>0.3422885353075099</v>
+        <v>0.3229422746705845</v>
       </c>
       <c r="AN67">
-        <v>0.3507233851898176</v>
+        <v>0.3256434495565518</v>
       </c>
       <c r="AO67">
-        <v>0.5999999999999943</v>
+        <v>0.337610752251002</v>
       </c>
       <c r="AP67">
-        <v>0.4999999999999858</v>
+        <v>0.3698368003081491</v>
       </c>
       <c r="AQ67">
-        <v>0.4999999999999858</v>
+        <v>0.1758209019151551</v>
       </c>
       <c r="AR67">
-        <v>0.6490000000000151</v>
+        <v>0.2325729404655324</v>
       </c>
       <c r="AS67">
-        <v>0.4000000000000057</v>
+        <v>0.3577990869905497</v>
       </c>
       <c r="AT67">
-        <v>0.2999999999999829</v>
+        <v>0.09999999999999432</v>
       </c>
       <c r="AU67">
         <v>0.09999999999999432</v>
@@ -9190,70 +8242,43 @@
       <c r="AZ67">
         <v>0.09999999999999432</v>
       </c>
-      <c r="BA67">
-        <v>0.09999999999999432</v>
-      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:52">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
-      <c r="AC68">
-        <v>0.3262003664457007</v>
-      </c>
-      <c r="AD68">
-        <v>0.3328796791209143</v>
-      </c>
-      <c r="AE68">
-        <v>0.3368713916389711</v>
-      </c>
-      <c r="AF68">
-        <v>0.3241015854267176</v>
-      </c>
-      <c r="AG68">
-        <v>0.3043085082873164</v>
-      </c>
-      <c r="AH68">
-        <v>0.280960399238892</v>
-      </c>
-      <c r="AI68">
-        <v>0.3447805384648152</v>
-      </c>
-      <c r="AJ68">
-        <v>0.4010893273177048</v>
-      </c>
       <c r="AK68">
-        <v>0.4179585556031838</v>
+        <v>0.285213869135277</v>
       </c>
       <c r="AL68">
-        <v>0.4228005054016141</v>
+        <v>0.3105396818741534</v>
       </c>
       <c r="AM68">
-        <v>0.4374315763671207</v>
+        <v>0.3182667186255368</v>
       </c>
       <c r="AN68">
-        <v>0.4154119240299982</v>
+        <v>0.319685686255303</v>
       </c>
       <c r="AO68">
-        <v>0.5999999999999943</v>
+        <v>0.2952816573192606</v>
       </c>
       <c r="AP68">
-        <v>0.2999999999999829</v>
+        <v>0.3231940623182339</v>
       </c>
       <c r="AQ68">
-        <v>0.3300000000000125</v>
+        <v>0.3451286786382135</v>
       </c>
       <c r="AR68">
-        <v>0.6490000000000151</v>
+        <v>0.2531665312243224</v>
       </c>
       <c r="AS68">
-        <v>0.5999999999999943</v>
+        <v>0.2844033165351734</v>
       </c>
       <c r="AT68">
-        <v>0.4000000000000057</v>
+        <v>0.3806278946782226</v>
       </c>
       <c r="AU68">
-        <v>0.4000000000000057</v>
+        <v>0</v>
       </c>
       <c r="AV68">
         <v>0</v>
@@ -9270,61 +8295,43 @@
       <c r="AZ68">
         <v>0</v>
       </c>
-      <c r="BA68">
-        <v>0</v>
-      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:52">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
-      <c r="AG69">
-        <v>0.3010865370240488</v>
-      </c>
-      <c r="AH69">
-        <v>0.2805666385247305</v>
-      </c>
-      <c r="AI69">
-        <v>0.3437580321176401</v>
-      </c>
-      <c r="AJ69">
-        <v>0.4010283388421605</v>
-      </c>
-      <c r="AK69">
-        <v>0.4004536940895155</v>
-      </c>
       <c r="AL69">
-        <v>0.3767041590744229</v>
+        <v>0.3131660772084833</v>
       </c>
       <c r="AM69">
-        <v>0.4201274776692316</v>
+        <v>0.3284396535508396</v>
       </c>
       <c r="AN69">
-        <v>0.3896146302418129</v>
+        <v>0.3295800838202789</v>
       </c>
       <c r="AO69">
-        <v>0.5999999999999943</v>
+        <v>0.3215454798394959</v>
       </c>
       <c r="AP69">
-        <v>0.2999999999999829</v>
+        <v>0.2717233606743273</v>
       </c>
       <c r="AQ69">
-        <v>0.2399999999999949</v>
+        <v>0.2931415517296496</v>
       </c>
       <c r="AR69">
-        <v>0.5490000000000066</v>
+        <v>0.3033681953949784</v>
       </c>
       <c r="AS69">
-        <v>0.6150000000000091</v>
+        <v>0.2507272729987484</v>
       </c>
       <c r="AT69">
-        <v>0.5999999999999943</v>
+        <v>0.2744017356543281</v>
       </c>
       <c r="AU69">
-        <v>0.5999999999999943</v>
+        <v>0.4145076564474093</v>
       </c>
       <c r="AV69">
-        <v>0.4490000000000123</v>
+        <v>0.09999999999999432</v>
       </c>
       <c r="AW69">
         <v>0.09999999999999432</v>
@@ -9338,64 +8345,43 @@
       <c r="AZ69">
         <v>0.09999999999999432</v>
       </c>
-      <c r="BA69">
-        <v>0.09999999999999432</v>
-      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:52">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
-      <c r="AG70">
-        <v>0.3013592388863438</v>
-      </c>
-      <c r="AH70">
-        <v>0.2813131476480248</v>
-      </c>
-      <c r="AI70">
-        <v>0.3439502200903608</v>
-      </c>
-      <c r="AJ70">
-        <v>0.4010553246811639</v>
-      </c>
-      <c r="AK70">
-        <v>0.4132568958207976</v>
-      </c>
-      <c r="AL70">
-        <v>0.4226413979210756</v>
-      </c>
       <c r="AM70">
-        <v>0.4029870405779897</v>
+        <v>0.3255103663331047</v>
       </c>
       <c r="AN70">
-        <v>0.3830148876808607</v>
+        <v>0.3271240625432104</v>
       </c>
       <c r="AO70">
-        <v>0.5999999999999943</v>
+        <v>0.322522695609019</v>
       </c>
       <c r="AP70">
-        <v>0.2399999999999949</v>
+        <v>0.3055270688930841</v>
       </c>
       <c r="AQ70">
-        <v>0.2000000000000028</v>
+        <v>0.2684984279931384</v>
       </c>
       <c r="AR70">
-        <v>0.4490000000000123</v>
+        <v>0.2779286845576018</v>
       </c>
       <c r="AS70">
-        <v>0.4999999999999858</v>
+        <v>0.2835160944566481</v>
       </c>
       <c r="AT70">
-        <v>0.5999999999999943</v>
+        <v>0.2424765297089788</v>
       </c>
       <c r="AU70">
-        <v>0.5999999999999943</v>
+        <v>0.276334589848822</v>
       </c>
       <c r="AV70">
-        <v>0.4690000000000083</v>
+        <v>0.3924600249190827</v>
       </c>
       <c r="AW70">
-        <v>0.2999999999999829</v>
+        <v>0.3200015876295765</v>
       </c>
       <c r="AX70">
         <v>0.3200015876295765</v>
@@ -9406,67 +8392,43 @@
       <c r="AZ70">
         <v>0.3200015876295765</v>
       </c>
-      <c r="BA70">
-        <v>0.3200015876295765</v>
-      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:52">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
-      <c r="AG71">
-        <v>0.3020191705136509</v>
-      </c>
-      <c r="AH71">
-        <v>0.2810038759552372</v>
-      </c>
-      <c r="AI71">
-        <v>0.3440716128827692</v>
-      </c>
-      <c r="AJ71">
-        <v>0.4010569363432399</v>
-      </c>
-      <c r="AK71">
-        <v>0.4122334644406814</v>
-      </c>
-      <c r="AL71">
-        <v>0.4199305992052585</v>
-      </c>
-      <c r="AM71">
-        <v>0.4139441259446947</v>
-      </c>
       <c r="AN71">
-        <v>0.3923323413767732</v>
+        <v>0.3254035162577291</v>
       </c>
       <c r="AO71">
-        <v>0.08760493714421061</v>
+        <v>0.3147539841653587</v>
       </c>
       <c r="AP71">
-        <v>0.3031813303859182</v>
+        <v>0.305903428216892</v>
       </c>
       <c r="AQ71">
-        <v>0.3477416981477696</v>
+        <v>0.2923189191839189</v>
       </c>
       <c r="AR71">
-        <v>0.1960464525647924</v>
+        <v>0.2747388834706622</v>
       </c>
       <c r="AS71">
-        <v>0.4999999999999858</v>
+        <v>0.2793816383440463</v>
       </c>
       <c r="AT71">
-        <v>0.4999999999999858</v>
+        <v>0.2832245981331927</v>
       </c>
       <c r="AU71">
-        <v>0.4999999999999858</v>
+        <v>0.2218301548397124</v>
       </c>
       <c r="AV71">
-        <v>0.5509999000000079</v>
+        <v>0.2501250252183966</v>
       </c>
       <c r="AW71">
-        <v>0.4999999999999858</v>
+        <v>0.2795746399100924</v>
       </c>
       <c r="AX71">
-        <v>0.2999999999999829</v>
+        <v>0.09999771493470178</v>
       </c>
       <c r="AY71">
         <v>0.09999771493470178</v>
@@ -9474,716 +8436,299 @@
       <c r="AZ71">
         <v>0.09999771493470178</v>
       </c>
-      <c r="BA71">
-        <v>0.09999771493470178</v>
-      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:52">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
-      <c r="AG72">
-        <v>0.3016953116865554</v>
-      </c>
-      <c r="AH72">
-        <v>0.2810271882511946</v>
-      </c>
-      <c r="AI72">
-        <v>0.3439909261614732</v>
-      </c>
-      <c r="AJ72">
-        <v>0.4010528554479392</v>
-      </c>
-      <c r="AK72">
-        <v>0.4109402514282953</v>
-      </c>
-      <c r="AL72">
-        <v>0.4070977181029933</v>
-      </c>
-      <c r="AM72">
-        <v>0.4140025906323036</v>
-      </c>
-      <c r="AN72">
-        <v>0.390358962897231</v>
-      </c>
       <c r="AO72">
-        <v>0.2830623388578554</v>
+        <v>0.3177013493330143</v>
       </c>
       <c r="AP72">
-        <v>0.2940773670185246</v>
+        <v>0.2964545671373783</v>
       </c>
       <c r="AQ72">
-        <v>0.2994058212878705</v>
+        <v>0.2893998393273149</v>
       </c>
       <c r="AR72">
-        <v>0.3224599120697171</v>
+        <v>0.2827549020979441</v>
       </c>
       <c r="AS72">
-        <v>0.2999999999999829</v>
+        <v>0.272358505082812</v>
       </c>
       <c r="AT72">
-        <v>0.4000000000000057</v>
+        <v>0.2754668923469935</v>
       </c>
       <c r="AU72">
-        <v>0.4000000000000057</v>
+        <v>0.2799215356496533</v>
       </c>
       <c r="AV72">
-        <v>0.5600000000000023</v>
+        <v>0.2295149866557265</v>
       </c>
       <c r="AW72">
-        <v>0.5999999999999943</v>
+        <v>0.237676031485402</v>
       </c>
       <c r="AX72">
-        <v>0.2599999999999909</v>
+        <v>0.3075297196847977</v>
       </c>
       <c r="AY72">
-        <v>0.2399999999999949</v>
+        <v>0.2000034419242951</v>
       </c>
       <c r="AZ72">
         <v>0.2000034419242951</v>
       </c>
-      <c r="BA72">
-        <v>0.2000034419242951</v>
-      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:52">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
-      <c r="AK73">
-        <v>0.411380213608562</v>
-      </c>
-      <c r="AL73">
-        <v>0.412541439442124</v>
-      </c>
-      <c r="AM73">
-        <v>0.4112359541859307</v>
-      </c>
-      <c r="AN73">
-        <v>0.3887185926710411</v>
-      </c>
-      <c r="AO73">
-        <v>0.338122633452923</v>
-      </c>
       <c r="AP73">
-        <v>0.2810001473595629</v>
+        <v>0.3002021100937049</v>
       </c>
       <c r="AQ73">
-        <v>0.2792044329425448</v>
+        <v>0.2841734350557324</v>
       </c>
       <c r="AR73">
-        <v>0.3392319261235566</v>
+        <v>0.2804108241532318</v>
       </c>
       <c r="AS73">
-        <v>0.2000000000000028</v>
+        <v>0.2762435243673046</v>
       </c>
       <c r="AT73">
-        <v>0.2999999999999829</v>
+        <v>0.2677848385847452</v>
       </c>
       <c r="AU73">
-        <v>0.2999999999999829</v>
+        <v>0.2712394824842073</v>
       </c>
       <c r="AV73">
-        <v>0.4999999900000063</v>
+        <v>0.2751917399570944</v>
       </c>
       <c r="AW73">
-        <v>0.4999999999999858</v>
+        <v>0.2649317086333768</v>
       </c>
       <c r="AX73">
-        <v>0.1800000000000068</v>
+        <v>0.2831346272019272</v>
       </c>
       <c r="AY73">
-        <v>0.2299999999999898</v>
+        <v>0.3261721891758639</v>
       </c>
       <c r="AZ73">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="BA73">
         <v>0.03999999999999204</v>
       </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:52">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
-      <c r="AK74">
-        <v>0.4114284444477754</v>
-      </c>
-      <c r="AL74">
-        <v>0.4144360214791932</v>
-      </c>
-      <c r="AM74">
-        <v>0.4122904148484894</v>
-      </c>
-      <c r="AN74">
-        <v>0.3898808726723272</v>
-      </c>
-      <c r="AO74">
-        <v>0.2676751028653397</v>
-      </c>
-      <c r="AP74">
-        <v>0.2885631554044638</v>
-      </c>
       <c r="AQ74">
-        <v>0.3002045006604544</v>
+        <v>0.2870490930705974</v>
       </c>
       <c r="AR74">
-        <v>0.2992376995567291</v>
+        <v>0.2792177962307886</v>
       </c>
       <c r="AS74">
-        <v>0.2000000000000028</v>
+        <v>0.2765553405148759</v>
       </c>
       <c r="AT74">
-        <v>0.2000000000000028</v>
+        <v>0.2728867573602578</v>
       </c>
       <c r="AU74">
-        <v>0.2999999999999829</v>
+        <v>0.2593601665285041</v>
       </c>
       <c r="AV74">
-        <v>0.4200000000000017</v>
+        <v>0.2625072392207336</v>
       </c>
       <c r="AW74">
-        <v>0.4000000000000057</v>
+        <v>0.2651577337923174</v>
       </c>
       <c r="AX74">
-        <v>0.1500000000000057</v>
+        <v>0.238188999549063</v>
       </c>
       <c r="AY74">
-        <v>0.1490000000000009</v>
+        <v>0.2498093324507799</v>
       </c>
       <c r="AZ74">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="BA74">
-        <v>0.09999999999999432</v>
+        <v>0.3572769873001745</v>
       </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:52">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
-      <c r="AK75">
-        <v>0.4113635900179987</v>
-      </c>
-      <c r="AL75">
-        <v>0.4121160476022875</v>
-      </c>
-      <c r="AM75">
-        <v>0.4125758072809027</v>
-      </c>
-      <c r="AN75">
-        <v>0.3898470739803074</v>
-      </c>
-      <c r="AO75">
-        <v>0.2806194547644835</v>
-      </c>
-      <c r="AP75">
-        <v>0.2890287597788486</v>
-      </c>
-      <c r="AQ75">
-        <v>0.2972164422305909</v>
-      </c>
       <c r="AR75">
-        <v>0.310625712952972</v>
+        <v>0.2803142236238202</v>
       </c>
       <c r="AS75">
-        <v>0.3797476203009983</v>
+        <v>0.2754044686979337</v>
       </c>
       <c r="AT75">
-        <v>0.3392493614233602</v>
+        <v>0.2728888802266648</v>
       </c>
       <c r="AU75">
-        <v>0.2948685142657889</v>
+        <v>0.2663666939449745</v>
       </c>
       <c r="AV75">
-        <v>0.1871373618170658</v>
+        <v>0.2555026747401986</v>
       </c>
       <c r="AW75">
-        <v>0.2999999999999829</v>
+        <v>0.2578917040729309</v>
       </c>
       <c r="AX75">
-        <v>0.2490000000000094</v>
+        <v>0.2624326850599727</v>
       </c>
       <c r="AY75">
-        <v>0.09999999999999432</v>
+        <v>0.2468706849310796</v>
       </c>
       <c r="AZ75">
-        <v>0.2099999999999937</v>
-      </c>
-      <c r="BA75">
-        <v>0.2000000000000028</v>
+        <v>0.2735995416917389</v>
       </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:52">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
-      <c r="AK76">
-        <v>0.4113736501906994</v>
-      </c>
-      <c r="AL76">
-        <v>0.4123832577053755</v>
-      </c>
-      <c r="AM76">
-        <v>0.4122014495366719</v>
-      </c>
-      <c r="AN76">
-        <v>0.3895583782229451</v>
-      </c>
-      <c r="AO76">
-        <v>0.2935026400547955</v>
-      </c>
-      <c r="AP76">
-        <v>0.2868495398024138</v>
-      </c>
-      <c r="AQ76">
-        <v>0.2927936761315619</v>
-      </c>
-      <c r="AR76">
-        <v>0.3166777422610978</v>
-      </c>
       <c r="AS76">
-        <v>0.3086508360822738</v>
+        <v>0.2757795998546674</v>
       </c>
       <c r="AT76">
-        <v>0.3104258537772048</v>
+        <v>0.2715402351348947</v>
       </c>
       <c r="AU76">
-        <v>0.2968975597482023</v>
+        <v>0.2667192392205805</v>
       </c>
       <c r="AV76">
-        <v>0.300057358572387</v>
+        <v>0.2616227774520909</v>
       </c>
       <c r="AW76">
-        <v>0.2999999999999829</v>
+        <v>0.2607129061897859</v>
       </c>
       <c r="AX76">
-        <v>0.1500000000000057</v>
+        <v>0.2646478873051916</v>
       </c>
       <c r="AY76">
-        <v>0.09999999999999432</v>
+        <v>0.2681421597716302</v>
       </c>
       <c r="AZ76">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="BA76">
-        <v>0.2000000000000028</v>
+        <v>0.2233074457097127</v>
       </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:52">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
-      <c r="AO77">
-        <v>0.2853137438669634</v>
-      </c>
-      <c r="AP77">
-        <v>0.2875867280492531</v>
-      </c>
-      <c r="AQ77">
-        <v>0.295360110828044</v>
-      </c>
-      <c r="AR77">
-        <v>0.3112792118100539</v>
-      </c>
-      <c r="AS77">
-        <v>0.2894928457237411</v>
-      </c>
       <c r="AT77">
-        <v>0.2852637135137451</v>
+        <v>0.272075568898642</v>
       </c>
       <c r="AU77">
-        <v>0.2974427264744426</v>
+        <v>0.264730778785684</v>
       </c>
       <c r="AV77">
-        <v>0.3164722620498852</v>
+        <v>0.2610412012553049</v>
       </c>
       <c r="AW77">
-        <v>0.2000000000000028</v>
+        <v>0.2615075483483228</v>
       </c>
       <c r="AX77">
-        <v>0.1500000000000057</v>
+        <v>0.2573888466726073</v>
       </c>
       <c r="AY77">
-        <v>0.09999999999999432</v>
+        <v>0.260480804302736</v>
       </c>
       <c r="AZ77">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="BA77">
-        <v>0.09999999999999432</v>
+        <v>0.2652548355113784</v>
       </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:52">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
-      <c r="AO78">
-        <v>0.285178443348137</v>
-      </c>
-      <c r="AP78">
-        <v>0.2878707723891114</v>
-      </c>
-      <c r="AQ78">
-        <v>0.2955175430664443</v>
-      </c>
-      <c r="AR78">
-        <v>0.3118166649999534</v>
-      </c>
-      <c r="AS78">
-        <v>0.3157712649907922</v>
-      </c>
-      <c r="AT78">
-        <v>0.3027851245013761</v>
-      </c>
       <c r="AU78">
-        <v>0.2966943558810155</v>
+        <v>0.2654271683737935</v>
       </c>
       <c r="AV78">
-        <v>0.2804054962588257</v>
+        <v>0.2596592976978301</v>
       </c>
       <c r="AW78">
-        <v>0.2000000000000028</v>
+        <v>0.2604496794125294</v>
       </c>
       <c r="AX78">
-        <v>0.09999999999999432</v>
+        <v>0.2596844168076418</v>
       </c>
       <c r="AY78">
-        <v>0.09999999999999432</v>
+        <v>0.2579181440216895</v>
       </c>
       <c r="AZ78">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="BA78">
-        <v>0.09999999999999432</v>
+        <v>0.2618566852983477</v>
       </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:52">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
-      <c r="AO79">
-        <v>0.2873015773001127</v>
-      </c>
-      <c r="AP79">
-        <v>0.2875641693925066</v>
-      </c>
-      <c r="AQ79">
-        <v>0.2947682116749826</v>
-      </c>
-      <c r="AR79">
-        <v>0.3130288952710022</v>
-      </c>
-      <c r="AS79">
-        <v>0.3104163500745515</v>
-      </c>
-      <c r="AT79">
-        <v>0.3024613705423388</v>
-      </c>
-      <c r="AU79">
-        <v>0.2968471148121165</v>
-      </c>
       <c r="AV79">
-        <v>0.2903481387450351</v>
+        <v>0.2603605823033228</v>
       </c>
       <c r="AW79">
-        <v>0.3193194546917643</v>
+        <v>0.2606598564241323</v>
       </c>
       <c r="AX79">
-        <v>0.3242361103345953</v>
+        <v>0.2606845841881535</v>
       </c>
       <c r="AY79">
-        <v>0.3230279554515865</v>
+        <v>0.260951571614271</v>
       </c>
       <c r="AZ79">
-        <v>0.3227471335707946</v>
-      </c>
-      <c r="BA79">
-        <v>0.09999999999999432</v>
+        <v>0.2521692031109932</v>
       </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:52">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
-      <c r="AO80">
-        <v>0.2865259166144469</v>
-      </c>
-      <c r="AP80">
-        <v>0.2876102273261837</v>
-      </c>
-      <c r="AQ80">
-        <v>0.2950255210171505</v>
-      </c>
-      <c r="AR80">
-        <v>0.3124077177393682</v>
-      </c>
-      <c r="AS80">
-        <v>0.3056223499208562</v>
-      </c>
-      <c r="AT80">
-        <v>0.2979887390664988</v>
-      </c>
-      <c r="AU80">
-        <v>0.2969832264046683</v>
-      </c>
-      <c r="AV80">
-        <v>0.2958709163602848</v>
-      </c>
       <c r="AW80">
-        <v>0.2721713554104449</v>
+        <v>0.2608550658015676</v>
       </c>
       <c r="AX80">
-        <v>0.2484160422395388</v>
+        <v>0.2596838046942865</v>
       </c>
       <c r="AY80">
-        <v>0.2345994499682832</v>
+        <v>0.2604234240978983</v>
       </c>
       <c r="AZ80">
-        <v>0.234407137718107</v>
-      </c>
-      <c r="BA80">
-        <v>0.09999999999999432</v>
+        <v>0.2569031819774462</v>
       </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:52">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
-      <c r="AS81">
-        <v>0.3089270670929569</v>
-      </c>
-      <c r="AT81">
-        <v>0.2998429298274711</v>
-      </c>
-      <c r="AU81">
-        <v>0.296889293527778</v>
-      </c>
-      <c r="AV81">
-        <v>0.291084991171595</v>
-      </c>
-      <c r="AW81">
-        <v>0.2595089468584107</v>
-      </c>
       <c r="AX81">
-        <v>0.2193878189674133</v>
+        <v>0.259817434791215</v>
       </c>
       <c r="AY81">
-        <v>0.2109754624084025</v>
+        <v>0.2598341636079564</v>
       </c>
       <c r="AZ81">
-        <v>0.2108060831497686</v>
-      </c>
-      <c r="BA81">
-        <v>0.09999999999999432</v>
+        <v>0.2575749991070615</v>
       </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:52">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
-      <c r="AS82">
-        <v>0.3088809056335806</v>
-      </c>
-      <c r="AT82">
-        <v>0.3002838954135107</v>
-      </c>
-      <c r="AU82">
-        <v>0.2968906941592956</v>
-      </c>
-      <c r="AV82">
-        <v>0.2915280842033747</v>
-      </c>
-      <c r="AW82">
-        <v>0.2768774029078551</v>
-      </c>
-      <c r="AX82">
-        <v>0.250900479132718</v>
-      </c>
       <c r="AY82">
-        <v>0.2436102348347827</v>
+        <v>0.2602068919060017</v>
       </c>
       <c r="AZ82">
-        <v>0.2434207765460157</v>
-      </c>
-      <c r="BA82">
-        <v>0.09999999999999432</v>
+        <v>0.2560633941733149</v>
       </c>
     </row>
-    <row r="83" spans="1:53">
+    <row r="83" spans="1:52">
       <c r="A83" s="1">
         <v>46934</v>
       </c>
-      <c r="AS83">
-        <v>0.3080299177606922</v>
-      </c>
-      <c r="AT83">
-        <v>0.2996226031579876</v>
-      </c>
-      <c r="AU83">
-        <v>0.2969148061066317</v>
-      </c>
-      <c r="AV83">
-        <v>0.2926069821936491</v>
-      </c>
-      <c r="AW83">
-        <v>0.2733352302294131</v>
-      </c>
-      <c r="AX83">
-        <v>0.2460461987311437</v>
-      </c>
-      <c r="AY83">
-        <v>0.2368870019267406</v>
-      </c>
       <c r="AZ83">
-        <v>0.2366987677205153</v>
-      </c>
-      <c r="BA83">
-        <v>0.2777966281368699</v>
-      </c>
-    </row>
-    <row r="84" spans="1:53">
-      <c r="A84" s="1">
-        <v>47026</v>
-      </c>
-      <c r="AS84">
-        <v>0.3083786566547562</v>
-      </c>
-      <c r="AT84">
-        <v>0.2997683951726005</v>
-      </c>
-      <c r="AU84">
-        <v>0.2969049041885037</v>
-      </c>
-      <c r="AV84">
-        <v>0.292064823689497</v>
-      </c>
-      <c r="AW84">
-        <v>0.2701798580282051</v>
-      </c>
-      <c r="AX84">
-        <v>0.2396642593829257</v>
-      </c>
-      <c r="AY84">
-        <v>0.2309655544362645</v>
-      </c>
-      <c r="AZ84">
-        <v>0.2307791582834482</v>
-      </c>
-      <c r="BA84">
-        <v>0.2071611158739524</v>
-      </c>
-    </row>
-    <row r="85" spans="1:53">
-      <c r="A85" s="1">
-        <v>47118</v>
-      </c>
-      <c r="AW85">
-        <v>0.2723556437372791</v>
-      </c>
-      <c r="AX85">
-        <v>0.2434772492461889</v>
-      </c>
-      <c r="AY85">
-        <v>0.2350824290011698</v>
-      </c>
-      <c r="AZ85">
-        <v>0.23489634088241</v>
-      </c>
-      <c r="BA85">
-        <v>0.1882961951902202</v>
-      </c>
-    </row>
-    <row r="86" spans="1:53">
-      <c r="A86" s="1">
-        <v>47208</v>
-      </c>
-      <c r="AW86">
-        <v>0.2723234244531099</v>
-      </c>
-      <c r="AX86">
-        <v>0.2436464821145335</v>
-      </c>
-      <c r="AY86">
-        <v>0.2350082296490744</v>
-      </c>
-      <c r="AZ86">
-        <v>0.2348217760107353</v>
-      </c>
-      <c r="BA86">
-        <v>0.2144342552045745</v>
-      </c>
-    </row>
-    <row r="87" spans="1:53">
-      <c r="A87" s="1">
-        <v>47299</v>
-      </c>
-      <c r="AW87">
-        <v>0.2717655364249587</v>
-      </c>
-      <c r="AX87">
-        <v>0.2425739706888003</v>
-      </c>
-      <c r="AY87">
-        <v>0.2339543809681441</v>
-      </c>
-      <c r="AZ87">
-        <v>0.2337675382009736</v>
-      </c>
-      <c r="BA87">
-        <v>0.2090292163902946</v>
-      </c>
-    </row>
-    <row r="88" spans="1:53">
-      <c r="A88" s="1">
-        <v>47391</v>
-      </c>
-      <c r="AW88">
-        <v>0.2719944310767692</v>
-      </c>
-      <c r="AX88">
-        <v>0.2429550486298944</v>
-      </c>
-      <c r="AY88">
-        <v>0.2343917461294673</v>
-      </c>
-      <c r="AZ88">
-        <v>0.2342052702386005</v>
-      </c>
-      <c r="BA88">
-        <v>0.2042777323757971</v>
-      </c>
-    </row>
-    <row r="89" spans="1:53">
-      <c r="A89" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA89">
-        <v>0.2075920064334403</v>
-      </c>
-    </row>
-    <row r="90" spans="1:53">
-      <c r="A90" s="1">
-        <v>47573</v>
-      </c>
-      <c r="BA90">
-        <v>0.2075293973347283</v>
-      </c>
-    </row>
-    <row r="91" spans="1:53">
-      <c r="A91" s="1">
-        <v>47664</v>
-      </c>
-      <c r="BA91">
-        <v>0.2066795099067649</v>
-      </c>
-    </row>
-    <row r="92" spans="1:53">
-      <c r="A92" s="1">
-        <v>47756</v>
-      </c>
-      <c r="BA92">
-        <v>0.2070336803042789</v>
+        <v>0.256485862672605</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_PRIVCON_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_PRIVCON_AR2_50_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA94"/>
+  <dimension ref="A1:BA93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9074,7 +9074,7 @@
         <v>-0.3517639154306679</v>
       </c>
       <c r="AG64">
-        <v>7.25</v>
+        <v>-20.92623681081761</v>
       </c>
       <c r="AH64">
         <v>10.81602434548657</v>
@@ -9166,10 +9166,10 @@
         <v>0.3224774894259023</v>
       </c>
       <c r="AG65">
-        <v>3.41009139335728</v>
+        <v>-43.97489414509727</v>
       </c>
       <c r="AH65">
-        <v>-0.7999999999999972</v>
+        <v>-0.7414213527259301</v>
       </c>
       <c r="AI65">
         <v>-3.329792626865739</v>
@@ -9255,13 +9255,13 @@
         <v>0.1023901082541362</v>
       </c>
       <c r="AG66">
-        <v>-3.962937356575955</v>
+        <v>-90.32508559561525</v>
       </c>
       <c r="AH66">
-        <v>-4.123883263261677</v>
+        <v>-4.167662874822406</v>
       </c>
       <c r="AI66">
-        <v>-2.400000000000006</v>
+        <v>-0.7462594237692133</v>
       </c>
       <c r="AJ66">
         <v>-5.356794673020033</v>
@@ -9341,16 +9341,16 @@
         <v>0.2291310508888415</v>
       </c>
       <c r="AG67">
-        <v>-0.3133291058607333</v>
+        <v>-185.6544924864306</v>
       </c>
       <c r="AH67">
-        <v>3.031715264710542</v>
+        <v>3.012099485787978</v>
       </c>
       <c r="AI67">
-        <v>2.996123589910866</v>
+        <v>1.703738961729053</v>
       </c>
       <c r="AJ67">
-        <v>3.480874220397794</v>
+        <v>4.881067606865664</v>
       </c>
       <c r="AK67">
         <v>3.232891992481555</v>
@@ -9424,19 +9424,19 @@
         <v>0.1811151017797205</v>
       </c>
       <c r="AG68">
-        <v>2.144678686288879</v>
+        <v>-380.9548580087869</v>
       </c>
       <c r="AH68">
-        <v>0.4879255975437429</v>
+        <v>0.5103538685638893</v>
       </c>
       <c r="AI68">
-        <v>-0.7301973886073956</v>
+        <v>-0.5360549269342505</v>
       </c>
       <c r="AJ68">
-        <v>0.7008842332427712</v>
+        <v>-0.1376947534005328</v>
       </c>
       <c r="AK68">
-        <v>6.400000000000006</v>
+        <v>0.7388159322130159</v>
       </c>
       <c r="AL68">
         <v>6.207106464233121</v>
@@ -9504,22 +9504,22 @@
         <v>0.205743587435231</v>
       </c>
       <c r="AG69">
-        <v>-0.1616215072075291</v>
+        <v>-781.334969188795</v>
       </c>
       <c r="AH69">
-        <v>-1.319640700320215</v>
+        <v>-1.333953392337865</v>
       </c>
       <c r="AI69">
-        <v>-0.3512209197716596</v>
+        <v>0.1339848920173001</v>
       </c>
       <c r="AJ69">
-        <v>-1.851282002186193</v>
+        <v>-2.097782898955798</v>
       </c>
       <c r="AK69">
-        <v>-5.180335362049175</v>
+        <v>-1.723433088099403</v>
       </c>
       <c r="AL69">
-        <v>-1.099999999999994</v>
+        <v>-5.414022278696728</v>
       </c>
       <c r="AM69">
         <v>-1.75071731783143</v>
@@ -9581,25 +9581,25 @@
         <v>0.1956338697409992</v>
       </c>
       <c r="AG70">
-        <v>-0.7026728394568804</v>
+        <v>-1602.047850069443</v>
       </c>
       <c r="AH70">
-        <v>0.8588461216471781</v>
+        <v>0.8431599591589952</v>
       </c>
       <c r="AI70">
-        <v>0.7649332308087609</v>
+        <v>0.3649411424677166</v>
       </c>
       <c r="AJ70">
-        <v>1.041051684172394</v>
+        <v>1.710154200302567</v>
       </c>
       <c r="AK70">
-        <v>-0.1648001361648772</v>
+        <v>0.9425731398495919</v>
       </c>
       <c r="AL70">
-        <v>-2.026420678526916</v>
+        <v>0.03512267094674248</v>
       </c>
       <c r="AM70">
-        <v>0.4209467346675666</v>
+        <v>-1.639012603584169</v>
       </c>
       <c r="AN70">
         <v>-0.1346947653272679</v>
@@ -9655,28 +9655,28 @@
         <v>0.2005140239460909</v>
       </c>
       <c r="AG71">
-        <v>0.4961200851280996</v>
+        <v>-3284.407181249334</v>
       </c>
       <c r="AH71">
-        <v>0.4455752131764999</v>
+        <v>0.4499839463846311</v>
       </c>
       <c r="AI71">
-        <v>-0.07366226830881706</v>
+        <v>0.03169952958721822</v>
       </c>
       <c r="AJ71">
-        <v>0.503912206903917</v>
+        <v>0.2516797871000565</v>
       </c>
       <c r="AK71">
-        <v>3.374329151395282</v>
+        <v>0.4886058366091834</v>
       </c>
       <c r="AL71">
-        <v>1.99197149627105</v>
+        <v>3.457673503936866</v>
       </c>
       <c r="AM71">
-        <v>1.094106577185633</v>
+        <v>2.15586607338874</v>
       </c>
       <c r="AN71">
-        <v>1.540000000000006</v>
+        <v>1.19895967144196</v>
       </c>
       <c r="AO71">
         <v>0.8180328061469453</v>
@@ -9726,31 +9726,31 @@
         <v>0.1984223904461457</v>
       </c>
       <c r="AG72">
-        <v>0.4386286236853801</v>
+        <v>-6733.022553011355</v>
       </c>
       <c r="AH72">
-        <v>-0.3092844470244732</v>
+        <v>-0.3157189814141452</v>
       </c>
       <c r="AI72">
-        <v>0.04731943523189031</v>
+        <v>0.1696263274091858</v>
       </c>
       <c r="AJ72">
-        <v>-0.5585973037394223</v>
+        <v>-0.7403054455581339</v>
       </c>
       <c r="AK72">
-        <v>-1.506041519685225</v>
+        <v>-0.4927478292434315</v>
       </c>
       <c r="AL72">
-        <v>0.4638170632468088</v>
+        <v>-1.665086109937346</v>
       </c>
       <c r="AM72">
-        <v>-0.262404023436389</v>
+        <v>0.1546013360490828</v>
       </c>
       <c r="AN72">
-        <v>-0.1913779152861339</v>
+        <v>-0.02466932316478762</v>
       </c>
       <c r="AO72">
-        <v>-0.1490000000000009</v>
+        <v>-0.2532906159908289</v>
       </c>
       <c r="AP72">
         <v>1.037928492263276</v>
@@ -9794,34 +9794,34 @@
         <v>45016</v>
       </c>
       <c r="AG73">
-        <v>-0.09794763608650933</v>
+        <v>-13802.23477346393</v>
       </c>
       <c r="AH73">
-        <v>0.3058433075581136</v>
+        <v>0.2952792081524285</v>
       </c>
       <c r="AI73">
-        <v>0.276092118061714</v>
+        <v>0.180575795478424</v>
       </c>
       <c r="AJ73">
-        <v>0.3474546143954192</v>
+        <v>0.6383413140426146</v>
       </c>
       <c r="AK73">
-        <v>-0.6256015083036957</v>
+        <v>0.3153351585976681</v>
       </c>
       <c r="AL73">
-        <v>-0.7421340545266046</v>
+        <v>-0.6027202943477021</v>
       </c>
       <c r="AM73">
-        <v>0.1219819432690573</v>
+        <v>-0.7024834817425425</v>
       </c>
       <c r="AN73">
-        <v>-0.1192954569587127</v>
+        <v>-0.04297327622602742</v>
       </c>
       <c r="AO73">
-        <v>0.218166520552468</v>
+        <v>0.2723296443554514</v>
       </c>
       <c r="AP73">
-        <v>-0.4999966213670604</v>
+        <v>-0.3817602796742097</v>
       </c>
       <c r="AQ73">
         <v>-1.003932912058644</v>
@@ -9861,38 +9861,35 @@
       <c r="A74" s="1">
         <v>45107</v>
       </c>
-      <c r="AG74">
-        <v>0.06558621834200831</v>
-      </c>
       <c r="AH74">
-        <v>0.300125505920554</v>
+        <v>0.2975104364363221</v>
       </c>
       <c r="AI74">
-        <v>0.08847253122019924</v>
+        <v>0.1343844310580028</v>
       </c>
       <c r="AJ74">
-        <v>0.3055965130539784</v>
+        <v>0.2535100954911703</v>
       </c>
       <c r="AK74">
-        <v>1.588765452824022</v>
+        <v>0.2884806990115797</v>
       </c>
       <c r="AL74">
-        <v>0.5969296559486262</v>
+        <v>1.694416857714701</v>
       </c>
       <c r="AM74">
-        <v>0.555420901956083</v>
+        <v>0.7301306731060018</v>
       </c>
       <c r="AN74">
-        <v>0.6550499860064738</v>
+        <v>0.5366926974345472</v>
       </c>
       <c r="AO74">
-        <v>0.4726703872743158</v>
+        <v>0.4960542027036769</v>
       </c>
       <c r="AP74">
-        <v>0.3090899674425829</v>
+        <v>0.2649202440956618</v>
       </c>
       <c r="AQ74">
-        <v>-0.7399999999999949</v>
+        <v>0.6792454257158682</v>
       </c>
       <c r="AR74">
         <v>-1.229861316022422</v>
@@ -9929,38 +9926,35 @@
       <c r="A75" s="1">
         <v>45199</v>
       </c>
-      <c r="AH75">
-        <v>0.02412755912951225</v>
-      </c>
       <c r="AI75">
-        <v>0.1231512868484819</v>
+        <v>0.1595331301238477</v>
       </c>
       <c r="AJ75">
-        <v>-0.1043257376255182</v>
+        <v>-0.1978680100324744</v>
       </c>
       <c r="AK75">
-        <v>-0.201689458727334</v>
+        <v>-0.07602634994644197</v>
       </c>
       <c r="AL75">
-        <v>0.5250698493954628</v>
+        <v>-0.2635200338264406</v>
       </c>
       <c r="AM75">
-        <v>0.1536985847747047</v>
+        <v>0.4208900455280673</v>
       </c>
       <c r="AN75">
-        <v>0.2387000358310354</v>
+        <v>0.2592670680202365</v>
       </c>
       <c r="AO75">
-        <v>0.1822478174976819</v>
+        <v>0.1494083335333586</v>
       </c>
       <c r="AP75">
-        <v>0.6014940945699503</v>
+        <v>0.582682968864662</v>
       </c>
       <c r="AQ75">
-        <v>1.248698792741732</v>
+        <v>0.6059587766958769</v>
       </c>
       <c r="AR75">
-        <v>-0.2510000000000048</v>
+        <v>1.76412925655812</v>
       </c>
       <c r="AS75">
         <v>0.04735458102862822</v>
@@ -9994,38 +9988,35 @@
       <c r="A76" s="1">
         <v>45291</v>
       </c>
-      <c r="AI76">
-        <v>0.1695552503987567</v>
-      </c>
       <c r="AJ76">
-        <v>0.1657561595473535</v>
+        <v>0.2880396287921643</v>
       </c>
       <c r="AK76">
-        <v>-0.3911396661132435</v>
+        <v>0.15732349088809</v>
       </c>
       <c r="AL76">
-        <v>-0.09227547428908683</v>
+        <v>-0.4216844405039256</v>
       </c>
       <c r="AM76">
-        <v>0.1586253702973044</v>
+        <v>-0.1314917003549008</v>
       </c>
       <c r="AN76">
-        <v>0.08218177892566075</v>
+        <v>0.1258013291149647</v>
       </c>
       <c r="AO76">
-        <v>0.2106067302285167</v>
+        <v>0.2191984056588912</v>
       </c>
       <c r="AP76">
-        <v>0.09650463760617062</v>
+        <v>0.1388833665778492</v>
       </c>
       <c r="AQ76">
-        <v>0.1558458578210697</v>
+        <v>-0.1184461413193342</v>
       </c>
       <c r="AR76">
-        <v>1.029713158490776</v>
+        <v>0.1130034632056707</v>
       </c>
       <c r="AS76">
-        <v>0.2000000000000028</v>
+        <v>0.5399508454311004</v>
       </c>
       <c r="AT76">
         <v>-0.2656763841019938</v>
@@ -10056,38 +10047,35 @@
       <c r="A77" s="1">
         <v>45382</v>
       </c>
-      <c r="AJ77">
-        <v>0.1980717333310348</v>
-      </c>
       <c r="AK77">
-        <v>0.7216011712277235</v>
+        <v>0.1877931510037858</v>
       </c>
       <c r="AL77">
-        <v>0.2469031719677908</v>
+        <v>0.7883310705700438</v>
       </c>
       <c r="AM77">
-        <v>0.3429895216479403</v>
+        <v>0.3052059267797212</v>
       </c>
       <c r="AN77">
-        <v>0.3542969722710452</v>
+        <v>0.3210195650011987</v>
       </c>
       <c r="AO77">
-        <v>0.327337189666823</v>
+        <v>0.3409133996839882</v>
       </c>
       <c r="AP77">
-        <v>0.212640971957809</v>
+        <v>0.2138155823758616</v>
       </c>
       <c r="AQ77">
-        <v>-0.2087619841940828</v>
+        <v>0.2718557668059148</v>
       </c>
       <c r="AR77">
-        <v>0.01066661860114224</v>
+        <v>-0.3961183678291557</v>
       </c>
       <c r="AS77">
-        <v>0.2820838256790996</v>
+        <v>0.1472571816580443</v>
       </c>
       <c r="AT77">
-        <v>0.1200000000000045</v>
+        <v>0.4345404722437392</v>
       </c>
       <c r="AU77">
         <v>0.2367387297557855</v>
@@ -10115,38 +10103,35 @@
       <c r="A78" s="1">
         <v>45473</v>
       </c>
-      <c r="AK78">
-        <v>0.175396322692518</v>
-      </c>
       <c r="AL78">
-        <v>0.3807341674315545</v>
+        <v>0.166448565383009</v>
       </c>
       <c r="AM78">
-        <v>0.2458905693335996</v>
+        <v>0.355412019833967</v>
       </c>
       <c r="AN78">
-        <v>0.2930577024050517</v>
+        <v>0.2869556360035335</v>
       </c>
       <c r="AO78">
-        <v>0.2571488048670648</v>
+        <v>0.2496317056561579</v>
       </c>
       <c r="AP78">
-        <v>0.3817820142332237</v>
+        <v>0.3752833109599278</v>
       </c>
       <c r="AQ78">
-        <v>0.4640492650155063</v>
+        <v>0.4067277987822512</v>
       </c>
       <c r="AR78">
-        <v>-0.04936550433054371</v>
+        <v>0.5752347993852363</v>
       </c>
       <c r="AS78">
-        <v>0.1768164119813352</v>
+        <v>0.126653134719081</v>
       </c>
       <c r="AT78">
-        <v>0.4211787666311186</v>
+        <v>0.2788461506952404</v>
       </c>
       <c r="AU78">
-        <v>0.09999999999999432</v>
+        <v>0.2833261624959177</v>
       </c>
       <c r="AV78">
         <v>-0.414894517653039</v>
@@ -10171,38 +10156,35 @@
       <c r="A79" s="1">
         <v>45565</v>
       </c>
-      <c r="AL79">
-        <v>0.1494610132816651</v>
-      </c>
       <c r="AM79">
-        <v>0.2100486538045048</v>
+        <v>0.1129543246458738</v>
       </c>
       <c r="AN79">
-        <v>0.1960185439830976</v>
+        <v>0.2127205778362497</v>
       </c>
       <c r="AO79">
-        <v>0.2391537638524287</v>
+        <v>0.2397393163745891</v>
       </c>
       <c r="AP79">
-        <v>0.2471048324593182</v>
+        <v>0.2629826530270313</v>
       </c>
       <c r="AQ79">
-        <v>0.2996335898150517</v>
+        <v>0.1638683236031866</v>
       </c>
       <c r="AR79">
-        <v>0.4098942053544007</v>
+        <v>0.3258870944551295</v>
       </c>
       <c r="AS79">
-        <v>0.1922801461665575</v>
+        <v>0.3048934020328104</v>
       </c>
       <c r="AT79">
-        <v>0.112909106075748</v>
+        <v>0.05401259618283419</v>
       </c>
       <c r="AU79">
-        <v>0.2286550815363005</v>
+        <v>0.1471233223760379</v>
       </c>
       <c r="AV79">
-        <v>0</v>
+        <v>0.3897250556640635</v>
       </c>
       <c r="AW79">
         <v>-0.221994898611058</v>
@@ -10224,38 +10206,35 @@
       <c r="A80" s="1">
         <v>45657</v>
       </c>
-      <c r="AM80">
-        <v>0.2736542934757871</v>
-      </c>
       <c r="AN80">
-        <v>0.2726172989400849</v>
+        <v>0.2652279467086415</v>
       </c>
       <c r="AO80">
-        <v>0.2795895845973901</v>
+        <v>0.2856950693786074</v>
       </c>
       <c r="AP80">
-        <v>0.2372923509155418</v>
+        <v>0.2457674622131293</v>
       </c>
       <c r="AQ80">
-        <v>0.07577868519787737</v>
+        <v>0.2226751020325545</v>
       </c>
       <c r="AR80">
-        <v>0.2182753806576183</v>
+        <v>0.02142791746555478</v>
       </c>
       <c r="AS80">
-        <v>0.2301097104498222</v>
+        <v>0.2272790477159067</v>
       </c>
       <c r="AT80">
-        <v>0.1313435216829141</v>
+        <v>0.2278150941332517</v>
       </c>
       <c r="AU80">
-        <v>0.2256554198611863</v>
+        <v>0.1924870907392452</v>
       </c>
       <c r="AV80">
-        <v>0.5490319412376854</v>
+        <v>0.3648017249805879</v>
       </c>
       <c r="AW80">
-        <v>0.09999999999999432</v>
+        <v>0.3707353136892355</v>
       </c>
       <c r="AX80">
         <v>0.2887465499738369</v>
@@ -10274,38 +10253,35 @@
       <c r="A81" s="1">
         <v>45747</v>
       </c>
-      <c r="AN81">
-        <v>0.2801637405137913</v>
-      </c>
       <c r="AO81">
-        <v>0.2677937242055631</v>
+        <v>0.2675446042513655</v>
       </c>
       <c r="AP81">
-        <v>0.302346727769593</v>
+        <v>0.3042939561097872</v>
       </c>
       <c r="AQ81">
-        <v>0.2597265272455039</v>
+        <v>0.3034144117788626</v>
       </c>
       <c r="AR81">
-        <v>0.1146227482507003</v>
+        <v>0.2788178776320681</v>
       </c>
       <c r="AS81">
-        <v>0.2052087399216708</v>
+        <v>0.1885538305804187</v>
       </c>
       <c r="AT81">
-        <v>0.2541521044430011</v>
+        <v>0.2409250148402042</v>
       </c>
       <c r="AU81">
-        <v>0.1718112672352901</v>
+        <v>0.2291980412881563</v>
       </c>
       <c r="AV81">
-        <v>0.1072662001540579</v>
+        <v>0.0310161116143392</v>
       </c>
       <c r="AW81">
-        <v>0.4381157400618436</v>
+        <v>0.3054102747409474</v>
       </c>
       <c r="AX81">
-        <v>0.3200015876295765</v>
+        <v>0.4630840635554818</v>
       </c>
       <c r="AY81">
         <v>0.08334581737663882</v>
@@ -10321,38 +10297,35 @@
       <c r="A82" s="1">
         <v>45838</v>
       </c>
-      <c r="AO82">
-        <v>0.2554019076871083</v>
-      </c>
       <c r="AP82">
-        <v>0.274922682142118</v>
+        <v>0.2833932408069018</v>
       </c>
       <c r="AQ82">
-        <v>0.2709416511650179</v>
+        <v>0.2370319775318435</v>
       </c>
       <c r="AR82">
-        <v>0.2446234171024673</v>
+        <v>0.287061100254023</v>
       </c>
       <c r="AS82">
-        <v>0.2009450547751903</v>
+        <v>0.2405881092325505</v>
       </c>
       <c r="AT82">
-        <v>0.1877178461566333</v>
+        <v>0.1604210289119662</v>
       </c>
       <c r="AU82">
-        <v>0.1989466449352248</v>
+        <v>0.1921013976434808</v>
       </c>
       <c r="AV82">
-        <v>0.08317933060364521</v>
+        <v>0.2019843485561403</v>
       </c>
       <c r="AW82">
-        <v>0.1370748789483816</v>
+        <v>0.08166645222529803</v>
       </c>
       <c r="AX82">
-        <v>0.09985345063009196</v>
+        <v>0.03167358369192355</v>
       </c>
       <c r="AY82">
-        <v>0.09999771493470178</v>
+        <v>0.2509968438192447</v>
       </c>
       <c r="AZ82">
         <v>0.4898317593399497</v>
@@ -10365,38 +10338,35 @@
       <c r="A83" s="1">
         <v>45930</v>
       </c>
-      <c r="AP83">
-        <v>0.259228291871584</v>
-      </c>
       <c r="AQ83">
-        <v>0.1822457550696533</v>
+        <v>0.233281734351554</v>
       </c>
       <c r="AR83">
-        <v>0.2270258923876982</v>
+        <v>0.1702356410866285</v>
       </c>
       <c r="AS83">
-        <v>0.2137148232871889</v>
+        <v>0.2319444312974616</v>
       </c>
       <c r="AT83">
-        <v>0.1669721761895099</v>
+        <v>0.1932369166610602</v>
       </c>
       <c r="AU83">
-        <v>0.2090582931471475</v>
+        <v>0.1941422479441673</v>
       </c>
       <c r="AV83">
-        <v>0.2846497132527567</v>
+        <v>0.2633289307305921</v>
       </c>
       <c r="AW83">
-        <v>0.1359505872440954</v>
+        <v>0.2172312949140331</v>
       </c>
       <c r="AX83">
-        <v>0.1920029590800404</v>
+        <v>0.163530232878224</v>
       </c>
       <c r="AY83">
-        <v>0.3064694956799474</v>
+        <v>0.2345008246790856</v>
       </c>
       <c r="AZ83">
-        <v>0.2000034419242951</v>
+        <v>0.06297564954347848</v>
       </c>
       <c r="BA83">
         <v>0.05472760207160832</v>
@@ -10406,253 +10376,215 @@
       <c r="A84" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ84">
-        <v>0.2205893421760397</v>
-      </c>
       <c r="AR84">
-        <v>0.1803712705894753</v>
+        <v>0.2234504438430197</v>
       </c>
       <c r="AS84">
-        <v>0.2093893530264569</v>
+        <v>0.2138425476944285</v>
       </c>
       <c r="AT84">
-        <v>0.2052259373303775</v>
+        <v>0.2119682930236409</v>
       </c>
       <c r="AU84">
-        <v>0.1925441991305989</v>
+        <v>0.2090911915923414</v>
       </c>
       <c r="AV84">
-        <v>0.1983473431356831</v>
+        <v>0.1604094159505245</v>
       </c>
       <c r="AW84">
-        <v>0.2661740776896998</v>
+        <v>0.2484297436516124</v>
       </c>
       <c r="AX84">
-        <v>0.2425442913845122</v>
+        <v>0.2860572488026675</v>
       </c>
       <c r="AY84">
-        <v>0.2001369838950839</v>
+        <v>0.1702484414521719</v>
       </c>
       <c r="AZ84">
-        <v>0.08651757380516481</v>
+        <v>0.1608572430577876</v>
       </c>
       <c r="BA84">
-        <v>0.03999999999999204</v>
+        <v>0.1106596286637345</v>
       </c>
     </row>
     <row r="85" spans="1:53">
       <c r="A85" s="1">
         <v>46112</v>
       </c>
-      <c r="AR85">
-        <v>0.2098567931016708</v>
-      </c>
       <c r="AS85">
-        <v>0.2059819537446382</v>
+        <v>0.2263248524432178</v>
       </c>
       <c r="AT85">
-        <v>0.1958398527080348</v>
+        <v>0.189010845172273</v>
       </c>
       <c r="AU85">
-        <v>0.1961262831256942</v>
+        <v>0.2010405131501988</v>
       </c>
       <c r="AV85">
-        <v>0.1531398644445628</v>
+        <v>0.1834632496723607</v>
       </c>
       <c r="AW85">
-        <v>0.2041376809297586</v>
+        <v>0.1750993325696475</v>
       </c>
       <c r="AX85">
-        <v>0.1786429476461824</v>
+        <v>0.1705063273933386</v>
       </c>
       <c r="AY85">
-        <v>0.1623010194982296</v>
+        <v>0.2082101794294024</v>
       </c>
       <c r="AZ85">
-        <v>0.2657515798556054</v>
+        <v>0.2975865880158619</v>
       </c>
       <c r="BA85">
-        <v>0.336670963302719</v>
+        <v>0.3169517764463556</v>
       </c>
     </row>
     <row r="86" spans="1:53">
       <c r="A86" s="1">
         <v>46203</v>
       </c>
-      <c r="AS86">
-        <v>0.2094865339171294</v>
-      </c>
       <c r="AT86">
-        <v>0.1839854312649927</v>
+        <v>0.1919641207080703</v>
       </c>
       <c r="AU86">
-        <v>0.2015030330676379</v>
+        <v>0.1984855285227199</v>
       </c>
       <c r="AV86">
-        <v>0.2119298411706985</v>
+        <v>0.2166199461931992</v>
       </c>
       <c r="AW86">
-        <v>0.17782330664223</v>
+        <v>0.1968867944839816</v>
       </c>
       <c r="AX86">
-        <v>0.1875439971341977</v>
+        <v>0.1731689205517123</v>
       </c>
       <c r="AY86">
-        <v>0.2262580930266894</v>
+        <v>0.2176386245341607</v>
       </c>
       <c r="AZ86">
-        <v>0.2285291039813763</v>
+        <v>0.1897706618933908</v>
       </c>
       <c r="BA86">
-        <v>0.2002239613275362</v>
+        <v>0.1938094709021038</v>
       </c>
     </row>
     <row r="87" spans="1:53">
       <c r="A87" s="1">
         <v>46295</v>
       </c>
-      <c r="AT87">
-        <v>0.193645434267602</v>
-      </c>
       <c r="AU87">
-        <v>0.1973828240740746</v>
+        <v>0.2031684985119763</v>
       </c>
       <c r="AV87">
-        <v>0.2031594381490401</v>
+        <v>0.1907941927020416</v>
       </c>
       <c r="AW87">
-        <v>0.2171812374110225</v>
+        <v>0.2179856765796604</v>
       </c>
       <c r="AX87">
-        <v>0.2107751025451584</v>
+        <v>0.2216500942860387</v>
       </c>
       <c r="AY87">
-        <v>0.2118331014489727</v>
+        <v>0.1967673156296909</v>
       </c>
       <c r="AZ87">
-        <v>0.1692620881573219</v>
+        <v>0.1827044047378323</v>
       </c>
       <c r="BA87">
-        <v>0.1381013420461794</v>
+        <v>0.1641591173962634</v>
       </c>
     </row>
     <row r="88" spans="1:53">
       <c r="A88" s="1">
         <v>46387</v>
       </c>
-      <c r="AU88">
-        <v>0.1970501868248283</v>
-      </c>
       <c r="AV88">
-        <v>0.1820933901795981</v>
+        <v>0.1889460399904081</v>
       </c>
       <c r="AW88">
-        <v>0.2096211885928255</v>
+        <v>0.1984758944090209</v>
       </c>
       <c r="AX88">
-        <v>0.1958009417694521</v>
+        <v>0.1972491469778407</v>
       </c>
       <c r="AY88">
-        <v>0.1912218237194122</v>
+        <v>0.2027326513843101</v>
       </c>
       <c r="AZ88">
-        <v>0.2137415578881774</v>
+        <v>0.2325103717147501</v>
       </c>
       <c r="BA88">
-        <v>0.2267785811933831</v>
+        <v>0.2313986374421428</v>
       </c>
     </row>
     <row r="89" spans="1:53">
       <c r="A89" s="1">
         <v>46477</v>
       </c>
-      <c r="AV89">
-        <v>0.1959704059991869</v>
-      </c>
       <c r="AW89">
-        <v>0.196296009198672</v>
+        <v>0.1987639860684316</v>
       </c>
       <c r="AX89">
-        <v>0.1929859359145734</v>
+        <v>0.1880763918758455</v>
       </c>
       <c r="AY89">
-        <v>0.207332057253116</v>
+        <v>0.2088528276636961</v>
       </c>
       <c r="AZ89">
-        <v>0.2178911112571207</v>
+        <v>0.2116268402751624</v>
       </c>
       <c r="BA89">
-        <v>0.2108575901384858</v>
+        <v>0.2118691770813338</v>
       </c>
     </row>
     <row r="90" spans="1:53">
       <c r="A90" s="1">
         <v>46568</v>
       </c>
-      <c r="AW90">
-        <v>0.2059502227371886</v>
-      </c>
       <c r="AX90">
-        <v>0.200780556308386</v>
+        <v>0.2029836654012216</v>
       </c>
       <c r="AY90">
-        <v>0.2084697599639762</v>
+        <v>0.20334520985156</v>
       </c>
       <c r="AZ90">
-        <v>0.1967549733373755</v>
+        <v>0.2002187003156194</v>
       </c>
       <c r="BA90">
-        <v>0.1803212950760537</v>
+        <v>0.1923081431760958</v>
       </c>
     </row>
     <row r="91" spans="1:53">
       <c r="A91" s="1">
         <v>46660</v>
       </c>
-      <c r="AX91">
-        <v>0.1982531115420439</v>
-      </c>
       <c r="AY91">
-        <v>0.2009864727191344</v>
+        <v>0.2033556940569484</v>
       </c>
       <c r="AZ91">
-        <v>0.2051183364407668</v>
+        <v>0.2146885780795116</v>
       </c>
       <c r="BA91">
-        <v>0.2018770094865156</v>
+        <v>0.2101075427112297</v>
       </c>
     </row>
     <row r="92" spans="1:53">
       <c r="A92" s="1">
         <v>46752</v>
       </c>
-      <c r="AY92">
-        <v>0.2040905963699726</v>
-      </c>
       <c r="AZ92">
-        <v>0.2101991697450222</v>
+        <v>0.2126485318757679</v>
       </c>
       <c r="BA92">
-        <v>0.2046560310086787</v>
+        <v>0.2099786504021938</v>
       </c>
     </row>
     <row r="93" spans="1:53">
       <c r="A93" s="1">
         <v>46843</v>
       </c>
-      <c r="AZ93">
-        <v>0.2041599017973981</v>
-      </c>
       <c r="BA93">
-        <v>0.1940329594505532</v>
-      </c>
-    </row>
-    <row r="94" spans="1:53">
-      <c r="A94" s="1">
-        <v>46934</v>
-      </c>
-      <c r="BA94">
-        <v>0.1979488553154932</v>
+        <v>0.202379707973525</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_PRIVCON_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_PRIVCON_AR2_50_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA82"/>
+  <dimension ref="A1:BB83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,8 +532,11 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -690,8 +693,11 @@
       <c r="BA2">
         <v>-0.2522510312815029</v>
       </c>
+      <c r="BB2">
+        <v>-0.2522510312815029</v>
+      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -848,8 +854,11 @@
       <c r="BA3">
         <v>0.8253228627186644</v>
       </c>
+      <c r="BB3">
+        <v>0.8253228627186644</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
@@ -1003,8 +1012,11 @@
       <c r="BA4">
         <v>-0.8956080111821194</v>
       </c>
+      <c r="BB4">
+        <v>-0.8956080111821194</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
@@ -1158,8 +1170,11 @@
       <c r="BA5">
         <v>0.6802092152583725</v>
       </c>
+      <c r="BB5">
+        <v>0.6802092152583725</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
@@ -1310,8 +1325,11 @@
       <c r="BA6">
         <v>-0.2702467235064887</v>
       </c>
+      <c r="BB6">
+        <v>-0.2702467235064887</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
@@ -1462,8 +1480,11 @@
       <c r="BA7">
         <v>0.2360788655137185</v>
       </c>
+      <c r="BB7">
+        <v>0.2360788655137185</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
@@ -1611,8 +1632,11 @@
       <c r="BA8">
         <v>0.4710547017577227</v>
       </c>
+      <c r="BB8">
+        <v>0.4710547017577227</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
@@ -1760,8 +1784,11 @@
       <c r="BA9">
         <v>-0.6739669439274962</v>
       </c>
+      <c r="BB9">
+        <v>-0.6739669439274962</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
@@ -1906,8 +1933,11 @@
       <c r="BA10">
         <v>-0.2065125907403171</v>
       </c>
+      <c r="BB10">
+        <v>-0.2065125907403171</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
@@ -2052,8 +2082,11 @@
       <c r="BA11">
         <v>0.1861693474447037</v>
       </c>
+      <c r="BB11">
+        <v>0.1861693474447037</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
@@ -2198,8 +2231,11 @@
       <c r="BA12">
         <v>0.7530542497296722</v>
       </c>
+      <c r="BB12">
+        <v>0.7530542497296722</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
@@ -2344,8 +2380,11 @@
       <c r="BA13">
         <v>0.3106180987640244</v>
       </c>
+      <c r="BB13">
+        <v>0.3106180987640244</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
@@ -2490,8 +2529,11 @@
       <c r="BA14">
         <v>0.5709322285556908</v>
       </c>
+      <c r="BB14">
+        <v>0.5709322285556908</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
@@ -2636,8 +2678,11 @@
       <c r="BA15">
         <v>1.247003875094862</v>
       </c>
+      <c r="BB15">
+        <v>1.247003875094862</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
@@ -2782,8 +2827,11 @@
       <c r="BA16">
         <v>-0.776883278166693</v>
       </c>
+      <c r="BB16">
+        <v>-0.776883278166693</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
@@ -2928,8 +2976,11 @@
       <c r="BA17">
         <v>1.384511819460911</v>
       </c>
+      <c r="BB17">
+        <v>1.384511819460911</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
@@ -3074,8 +3125,11 @@
       <c r="BA18">
         <v>0.09417825394891111</v>
       </c>
+      <c r="BB18">
+        <v>0.09417825394891111</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
@@ -3220,8 +3274,11 @@
       <c r="BA19">
         <v>-0.1288380179123294</v>
       </c>
+      <c r="BB19">
+        <v>-0.1288380179123294</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
@@ -3366,8 +3423,11 @@
       <c r="BA20">
         <v>0.1460429756367461</v>
       </c>
+      <c r="BB20">
+        <v>0.1460429756367461</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
@@ -3512,8 +3572,11 @@
       <c r="BA21">
         <v>-0.0194429241770564</v>
       </c>
+      <c r="BB21">
+        <v>-0.0194429241770564</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
@@ -3655,8 +3718,11 @@
       <c r="BA22">
         <v>0.2041957853813301</v>
       </c>
+      <c r="BB22">
+        <v>0.2041957853813301</v>
+      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:54">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
@@ -3798,8 +3864,11 @@
       <c r="BA23">
         <v>0.1772414135220401</v>
       </c>
+      <c r="BB23">
+        <v>0.1772414135220401</v>
+      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:54">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
@@ -3938,8 +4007,11 @@
       <c r="BA24">
         <v>0.7756459370471021</v>
       </c>
+      <c r="BB24">
+        <v>0.7756459370471021</v>
+      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:54">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
@@ -4078,8 +4150,11 @@
       <c r="BA25">
         <v>0.5676350012738425</v>
       </c>
+      <c r="BB25">
+        <v>0.5676350012738425</v>
+      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:54">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
@@ -4215,8 +4290,11 @@
       <c r="BA26">
         <v>-0.7653316860800885</v>
       </c>
+      <c r="BB26">
+        <v>-0.7653316860800885</v>
+      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:54">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
@@ -4352,8 +4430,11 @@
       <c r="BA27">
         <v>0.322227538137227</v>
       </c>
+      <c r="BB27">
+        <v>0.322227538137227</v>
+      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:54">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
@@ -4486,8 +4567,11 @@
       <c r="BA28">
         <v>-0.0579621925135001</v>
       </c>
+      <c r="BB28">
+        <v>-0.0579621925135001</v>
+      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:54">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
@@ -4620,8 +4704,11 @@
       <c r="BA29">
         <v>0.6475935709367775</v>
       </c>
+      <c r="BB29">
+        <v>0.6475935709367775</v>
+      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:54">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
@@ -4751,8 +4838,11 @@
       <c r="BA30">
         <v>0.9603367340567104</v>
       </c>
+      <c r="BB30">
+        <v>0.9603367340567104</v>
+      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:54">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
@@ -4882,8 +4972,11 @@
       <c r="BA31">
         <v>0.3700548251239582</v>
       </c>
+      <c r="BB31">
+        <v>0.3700548251239582</v>
+      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:54">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
@@ -5010,8 +5103,11 @@
       <c r="BA32">
         <v>0.4443178743943008</v>
       </c>
+      <c r="BB32">
+        <v>0.4443178743943008</v>
+      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:54">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
@@ -5138,8 +5234,11 @@
       <c r="BA33">
         <v>0.5552956277764309</v>
       </c>
+      <c r="BB33">
+        <v>0.5552956277764309</v>
+      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:54">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
@@ -5263,8 +5362,11 @@
       <c r="BA34">
         <v>0.3556667645181193</v>
       </c>
+      <c r="BB34">
+        <v>0.3556667645181193</v>
+      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:54">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
@@ -5388,8 +5490,11 @@
       <c r="BA35">
         <v>0.6924895145077272</v>
       </c>
+      <c r="BB35">
+        <v>0.6924895145077272</v>
+      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:54">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
@@ -5510,8 +5615,11 @@
       <c r="BA36">
         <v>0.3519868436780342</v>
       </c>
+      <c r="BB36">
+        <v>0.3519868436780342</v>
+      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:54">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
@@ -5632,8 +5740,11 @@
       <c r="BA37">
         <v>0.489196258618918</v>
       </c>
+      <c r="BB37">
+        <v>0.489196258618918</v>
+      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:54">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
@@ -5751,8 +5862,11 @@
       <c r="BA38">
         <v>0.1561519231779869</v>
       </c>
+      <c r="BB38">
+        <v>0.1561519231779869</v>
+      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:54">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
@@ -5870,8 +5984,11 @@
       <c r="BA39">
         <v>0.5297299217112936</v>
       </c>
+      <c r="BB39">
+        <v>0.5297299217112936</v>
+      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:54">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
@@ -5986,8 +6103,11 @@
       <c r="BA40">
         <v>0.7664191671286744</v>
       </c>
+      <c r="BB40">
+        <v>0.7664191671286744</v>
+      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:54">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
@@ -6102,8 +6222,11 @@
       <c r="BA41">
         <v>0.04527341468607915</v>
       </c>
+      <c r="BB41">
+        <v>0.04527341468607915</v>
+      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:54">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
@@ -6215,8 +6338,11 @@
       <c r="BA42">
         <v>0.06335359735614077</v>
       </c>
+      <c r="BB42">
+        <v>0.06335359735614077</v>
+      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:54">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
@@ -6328,8 +6454,11 @@
       <c r="BA43">
         <v>0.08598758370690973</v>
       </c>
+      <c r="BB43">
+        <v>0.08598758370690973</v>
+      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:54">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
@@ -6438,8 +6567,11 @@
       <c r="BA44">
         <v>0.2196343350075409</v>
       </c>
+      <c r="BB44">
+        <v>0.2196343350075409</v>
+      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:54">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
@@ -6548,8 +6680,11 @@
       <c r="BA45">
         <v>0.03810891122928695</v>
       </c>
+      <c r="BB45">
+        <v>0.03810891122928695</v>
+      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:54">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
@@ -6655,8 +6790,11 @@
       <c r="BA46">
         <v>0.4286160255108911</v>
       </c>
+      <c r="BB46">
+        <v>0.4286160255108911</v>
+      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:54">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
@@ -6762,8 +6900,11 @@
       <c r="BA47">
         <v>0.9</v>
       </c>
+      <c r="BB47">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:54">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
@@ -6866,8 +7007,11 @@
       <c r="BA48">
         <v>0.2</v>
       </c>
+      <c r="BB48">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:54">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
@@ -6970,8 +7114,11 @@
       <c r="BA49">
         <v>0.2</v>
       </c>
+      <c r="BB49">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:54">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
@@ -7071,8 +7218,11 @@
       <c r="BA50">
         <v>0</v>
       </c>
+      <c r="BB50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:54">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
@@ -7172,8 +7322,11 @@
       <c r="BA51">
         <v>-2.213339122522456</v>
       </c>
+      <c r="BB51">
+        <v>-2.213339122522456</v>
+      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:54">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
@@ -7270,8 +7423,11 @@
       <c r="BA52">
         <v>-11.49785608241407</v>
       </c>
+      <c r="BB52">
+        <v>-11.49785608241407</v>
+      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:54">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
@@ -7365,8 +7521,11 @@
       <c r="BA53">
         <v>11.22930999924247</v>
       </c>
+      <c r="BB53">
+        <v>11.22930999924247</v>
+      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:54">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
@@ -7457,8 +7616,11 @@
       <c r="BA54">
         <v>-2.250986781122748</v>
       </c>
+      <c r="BB54">
+        <v>-2.250986781122748</v>
+      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:54">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
@@ -7546,8 +7708,11 @@
       <c r="BA55">
         <v>-5.40098554941693</v>
       </c>
+      <c r="BB55">
+        <v>-5.40098554941693</v>
+      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:54">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
@@ -7632,8 +7797,11 @@
       <c r="BA56">
         <v>3.942549781810342</v>
       </c>
+      <c r="BB56">
+        <v>3.942549781810342</v>
+      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:54">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
@@ -7715,8 +7883,11 @@
       <c r="BA57">
         <v>6.284666192508709</v>
       </c>
+      <c r="BB57">
+        <v>6.284666192508709</v>
+      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:54">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
@@ -7795,8 +7966,11 @@
       <c r="BA58">
         <v>-1.347757551663406</v>
       </c>
+      <c r="BB58">
+        <v>-1.347757551663406</v>
+      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:54">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
@@ -7872,8 +8046,11 @@
       <c r="BA59">
         <v>1.396500038188336</v>
       </c>
+      <c r="BB59">
+        <v>1.396500038188336</v>
+      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:54">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
@@ -7946,8 +8123,11 @@
       <c r="BA60">
         <v>0.1885473380929312</v>
       </c>
+      <c r="BB60">
+        <v>0.1885473380929312</v>
+      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:54">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
@@ -8017,8 +8197,11 @@
       <c r="BA61">
         <v>1.224073604180177</v>
       </c>
+      <c r="BB61">
+        <v>1.224073604180177</v>
+      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:54">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
@@ -8085,8 +8268,11 @@
       <c r="BA62">
         <v>-1.674179157827311</v>
       </c>
+      <c r="BB62">
+        <v>-1.674179157827311</v>
+      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:54">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
@@ -8150,8 +8336,11 @@
       <c r="BA63">
         <v>-0.6601113848982436</v>
       </c>
+      <c r="BB63">
+        <v>-0.6601113848982436</v>
+      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:54">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
@@ -8212,8 +8401,11 @@
       <c r="BA64">
         <v>0.2658000717656392</v>
       </c>
+      <c r="BB64">
+        <v>0.2658000717656392</v>
+      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:54">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
@@ -8271,8 +8463,11 @@
       <c r="BA65">
         <v>-0.01892863903084674</v>
       </c>
+      <c r="BB65">
+        <v>-0.01892863903084674</v>
+      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:54">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
@@ -8327,8 +8522,11 @@
       <c r="BA66">
         <v>0.4261262404008619</v>
       </c>
+      <c r="BB66">
+        <v>0.4261262404008619</v>
+      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:54">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
@@ -8380,8 +8578,11 @@
       <c r="BA67">
         <v>-0.07433428650158191</v>
       </c>
+      <c r="BB67">
+        <v>-0.07433428650158191</v>
+      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:54">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
@@ -8430,8 +8631,11 @@
       <c r="BA68">
         <v>0.09298591595782568</v>
       </c>
+      <c r="BB68">
+        <v>0.09298591595782568</v>
+      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:54">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
@@ -8477,8 +8681,11 @@
       <c r="BA69">
         <v>0.2693878213604393</v>
       </c>
+      <c r="BB69">
+        <v>0.2693878213604393</v>
+      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:54">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
@@ -8521,8 +8728,11 @@
       <c r="BA70">
         <v>0.2408767182737677</v>
       </c>
+      <c r="BB70">
+        <v>0.2408767182737677</v>
+      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:54">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
@@ -8562,8 +8772,11 @@
       <c r="BA71">
         <v>0.5964409370693602</v>
       </c>
+      <c r="BB71">
+        <v>0.5597354586130052</v>
+      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:54">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
@@ -8600,8 +8813,11 @@
       <c r="BA72">
         <v>0.05472760207160832</v>
       </c>
+      <c r="BB72">
+        <v>0.1368731201391853</v>
+      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:54">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
@@ -8635,8 +8851,11 @@
       <c r="BA73">
         <v>0.1106596286637345</v>
       </c>
+      <c r="BB73">
+        <v>-0.2551464291630765</v>
+      </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:54">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
@@ -8667,8 +8886,11 @@
       <c r="BA74">
         <v>0.3169517764463556</v>
       </c>
+      <c r="BB74">
+        <v>0.4382843088295769</v>
+      </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:54">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
@@ -8696,8 +8918,11 @@
       <c r="BA75">
         <v>0.1938094709021038</v>
       </c>
+      <c r="BB75">
+        <v>0.273497985379609</v>
+      </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:54">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
@@ -8722,8 +8947,11 @@
       <c r="BA76">
         <v>0.1641591173962634</v>
       </c>
+      <c r="BB76">
+        <v>0.0539306827327628</v>
+      </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:54">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
@@ -8745,8 +8973,11 @@
       <c r="BA77">
         <v>0.2313986374421428</v>
       </c>
+      <c r="BB77">
+        <v>0.2306356627296811</v>
+      </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:54">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
@@ -8765,8 +8996,11 @@
       <c r="BA78">
         <v>0.2118691770813338</v>
       </c>
+      <c r="BB78">
+        <v>0.2402234230226422</v>
+      </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:54">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
@@ -8782,8 +9016,11 @@
       <c r="BA79">
         <v>0.1923081431760958</v>
       </c>
+      <c r="BB79">
+        <v>0.1594459847733843</v>
+      </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:54">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
@@ -8796,8 +9033,11 @@
       <c r="BA80">
         <v>0.2101075427112297</v>
       </c>
+      <c r="BB80">
+        <v>0.1941922693254655</v>
+      </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:54">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
@@ -8807,13 +9047,27 @@
       <c r="BA81">
         <v>0.2099786504021938</v>
       </c>
+      <c r="BB81">
+        <v>0.2122850466304503</v>
+      </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:54">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
       <c r="BA82">
         <v>0.202379707973525</v>
+      </c>
+      <c r="BB82">
+        <v>0.1886006359601506</v>
+      </c>
+    </row>
+    <row r="83" spans="1:54">
+      <c r="A83" s="1">
+        <v>46934</v>
+      </c>
+      <c r="BB83">
+        <v>0.1922018276915154</v>
       </c>
     </row>
   </sheetData>
